--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\PROJETOS\APP\Códigos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72B3609-1F6D-4541-825C-63C4C068A8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5824C9-5CE5-4CBD-996E-626F5C476E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="165">
   <si>
     <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
   </si>
@@ -473,12 +473,6 @@
     <t>S010038</t>
   </si>
   <si>
-    <t>PASTA AZ LOMBO LARGO TAM. OFICIO - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S020017</t>
-  </si>
-  <si>
     <t>QUADRO DE AVISO - UNICA</t>
   </si>
   <si>
@@ -507,6 +501,39 @@
   </si>
   <si>
     <t>S010064</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
+  </si>
+  <si>
+    <t>S050008</t>
+  </si>
+  <si>
+    <t>UM.</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>PC C/10</t>
+  </si>
+  <si>
+    <t>PC C/8</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PC C/100</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>PAR</t>
   </si>
 </sst>
 </file>
@@ -589,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -606,16 +633,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <border>
+        <left/>
+        <right/>
+        <top/>
         <bottom style="thin">
-          <color rgb="FF0070C0"/>
+          <color rgb="FF00B0F0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -637,6 +670,15 @@
         <top/>
         <bottom style="thin">
           <color rgb="FF00B0F0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -952,989 +994,1248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>809</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>1045</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <v>904</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>903</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="3">
+      <c r="D32" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="3">
+      <c r="D33" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="3">
+      <c r="D34" s="3">
         <v>899</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="3">
+      <c r="D35" s="3">
         <v>896</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="3">
+      <c r="D36" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="3">
+      <c r="D37" s="3">
         <v>898</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="3">
+      <c r="D39" s="3">
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="3">
+      <c r="D40" s="3">
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="3">
+      <c r="D43" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="3">
+      <c r="D44" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="3">
+      <c r="D45" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="3">
+      <c r="D46" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="3">
+      <c r="D47" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="2">
+      <c r="D48" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="3">
+      <c r="D49" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="3">
+      <c r="D50" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="3">
+      <c r="D51" s="3">
         <v>745</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="2">
+      <c r="D52" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="2">
+      <c r="D53" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="2">
+      <c r="D54" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="3">
+      <c r="D55" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="3">
+      <c r="D56" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="3">
+      <c r="D57" s="3">
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="3">
+      <c r="D59" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="3">
+      <c r="D60" s="3">
         <v>819</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="3">
+      <c r="D61" s="3">
         <v>750</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="3">
+      <c r="D62" s="3">
         <v>553</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="3">
+      <c r="D63" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="3">
+      <c r="D64" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="3">
+      <c r="D65" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="3">
+      <c r="D66" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C67" s="3">
+      <c r="D67" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C68" s="3">
+      <c r="D68" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C69" s="3">
+      <c r="D69" s="3">
         <v>994</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C70" s="3">
+      <c r="D70" s="3">
         <v>695</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="3">
+      <c r="D71" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C73" s="3">
+      <c r="D73" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="2">
+      <c r="D74" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C75" s="3">
+      <c r="D75" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="3">
+      <c r="D76" s="3">
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C77" s="3">
+      <c r="D77" s="3">
         <v>799</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C78" s="3">
+      <c r="D78" s="3">
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C79" s="3">
+      <c r="D79" s="3">
         <v>569</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C80" s="3">
+      <c r="D80" s="3">
         <v>762</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C81" s="3">
+      <c r="D81" s="3">
         <v>211</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C82" s="2">
+        <v>158</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D82" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C83" s="2">
+        <v>158</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D83" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C84" s="2">
+      <c r="D84" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C85" s="3">
+      <c r="D85" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C85" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C86">
+  <autoFilter ref="A1:D86" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D86">
       <sortCondition ref="A1:A85"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="2" priority="19">
-      <formula>$D1&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A1 C1:D1">
+    <cfRule type="expression" dxfId="2" priority="21">
+      <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C27 A29:C86">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D86">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:C28">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A28))&gt;0</formula>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="C84:C86 C2:C81" numberStoredAsText="1"/>
+    <ignoredError sqref="D84:D86 D43:D63 D2:D41 D64:D81" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5824C9-5CE5-4CBD-996E-626F5C476E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8677EEAA-D50A-4F9F-9621-28FFA740F7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -245,9 +245,6 @@
     <t>S040043</t>
   </si>
   <si>
-    <t>PAPEL A4 - AMARELO</t>
-  </si>
-  <si>
     <t>S020012</t>
   </si>
   <si>
@@ -534,6 +531,9 @@
   </si>
   <si>
     <t>PAR</t>
+  </si>
+  <si>
+    <t>PAPEL A4 - AMARELO 500FLS - BRANCO 500FLS</t>
   </si>
 </sst>
 </file>
@@ -641,19 +641,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FF00B0F0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -670,15 +658,6 @@
         <top/>
         <bottom style="thin">
           <color rgb="FF00B0F0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -996,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,27 +989,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -1041,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1055,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -1066,13 +1045,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D5" s="3">
         <v>53</v>
@@ -1080,30 +1059,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1111,7 +1090,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -1125,7 +1104,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -1139,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1153,7 +1132,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -1167,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -1181,7 +1160,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -1195,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -1206,16 +1185,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1223,7 +1202,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -1237,7 +1216,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -1248,10 +1227,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -1265,7 +1244,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -1279,7 +1258,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -1293,7 +1272,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -1304,13 +1283,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D22" s="3">
         <v>904</v>
@@ -1318,13 +1297,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" s="3">
         <v>903</v>
@@ -1335,7 +1314,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>27</v>
@@ -1349,7 +1328,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>29</v>
@@ -1360,13 +1339,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -1377,7 +1356,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>31</v>
@@ -1388,16 +1367,16 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1405,7 +1384,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>33</v>
@@ -1419,7 +1398,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>35</v>
@@ -1430,16 +1409,16 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1447,7 +1426,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>37</v>
@@ -1461,7 +1440,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>39</v>
@@ -1475,7 +1454,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>41</v>
@@ -1489,7 +1468,7 @@
         <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>41</v>
@@ -1503,7 +1482,7 @@
         <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>41</v>
@@ -1517,7 +1496,7 @@
         <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>41</v>
@@ -1528,16 +1507,16 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1545,7 +1524,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>46</v>
@@ -1559,7 +1538,7 @@
         <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>46</v>
@@ -1570,27 +1549,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
@@ -1601,7 +1580,7 @@
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>49</v>
@@ -1615,7 +1594,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>51</v>
@@ -1629,7 +1608,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>53</v>
@@ -1643,7 +1622,7 @@
         <v>54</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>55</v>
@@ -1654,13 +1633,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
@@ -1668,13 +1647,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -1685,7 +1664,7 @@
         <v>56</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>57</v>
@@ -1699,7 +1678,7 @@
         <v>58</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>59</v>
@@ -1713,7 +1692,7 @@
         <v>60</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>61</v>
@@ -1724,13 +1703,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D52" s="2">
         <v>33</v>
@@ -1738,13 +1717,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D53" s="2">
         <v>32</v>
@@ -1752,13 +1731,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D54" s="2">
         <v>31</v>
@@ -1769,7 +1748,7 @@
         <v>62</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>63</v>
@@ -1783,7 +1762,7 @@
         <v>64</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>65</v>
@@ -1797,7 +1776,7 @@
         <v>66</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>67</v>
@@ -1808,41 +1787,41 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="D58" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D59" s="3">
-        <v>7</v>
+        <v>821</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60" s="3">
         <v>819</v>
@@ -1850,13 +1829,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D61" s="3">
         <v>750</v>
@@ -1864,13 +1843,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D62" s="3">
         <v>553</v>
@@ -1878,13 +1857,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D63" s="3">
         <v>72</v>
@@ -1892,13 +1871,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D64" s="3">
         <v>86</v>
@@ -1906,13 +1885,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D65" s="3">
         <v>87</v>
@@ -1920,13 +1899,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D66" s="3">
         <v>88</v>
@@ -1934,13 +1913,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D67" s="3">
         <v>55</v>
@@ -1948,13 +1927,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D68" s="3">
         <v>54</v>
@@ -1962,13 +1941,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D69" s="3">
         <v>994</v>
@@ -1976,13 +1955,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D70" s="3">
         <v>695</v>
@@ -1990,13 +1969,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -2004,27 +1983,27 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="D72" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D73" s="3">
         <v>107</v>
@@ -2032,13 +2011,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="D74" s="2">
         <v>918</v>
@@ -2046,13 +2025,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D75" s="3">
         <v>170</v>
@@ -2060,13 +2039,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="3">
         <v>163</v>
@@ -2074,13 +2053,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="3">
         <v>799</v>
@@ -2088,13 +2067,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D78" s="3">
         <v>160</v>
@@ -2102,13 +2081,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D79" s="3">
         <v>569</v>
@@ -2116,13 +2095,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D80" s="3">
         <v>762</v>
@@ -2130,13 +2109,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="D81" s="3">
         <v>211</v>
@@ -2144,13 +2123,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D82" s="2">
         <v>1</v>
@@ -2158,13 +2137,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="D83" s="2">
         <v>2</v>
@@ -2172,13 +2151,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="D84" s="2">
         <v>1</v>
@@ -2186,13 +2165,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D85" s="3">
         <v>1</v>
@@ -2200,16 +2179,16 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2218,24 +2197,19 @@
       <sortCondition ref="A1:A85"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A1 C1:D1">
-    <cfRule type="expression" dxfId="2" priority="21">
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D86">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D84:D86 D43:D63 D2:D41 D64:D81" numberStoredAsText="1"/>
+    <ignoredError sqref="D84:D86 D43:D58 D2:D41 D64:D81 D60:D63" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8677EEAA-D50A-4F9F-9621-28FFA740F7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D0F5CC-1AFA-47D7-9C52-2B3C98DCFA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -533,7 +533,7 @@
     <t>PAR</t>
   </si>
   <si>
-    <t>PAPEL A4 - AMARELO 500FLS - BRANCO 500FLS</t>
+    <t>PAPEL A4 - AMARELO 500FLS - AMARELO 500FLS</t>
   </si>
 </sst>
 </file>
@@ -976,7 +976,7 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D0F5CC-1AFA-47D7-9C52-2B3C98DCFA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE964C9A-C465-4B44-B931-5C0E47C69C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$87</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="167">
   <si>
     <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
   </si>
@@ -534,6 +534,12 @@
   </si>
   <si>
     <t>PAPEL A4 - AMARELO 500FLS - AMARELO 500FLS</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
+  </si>
+  <si>
+    <t>S150189</t>
   </si>
 </sst>
 </file>
@@ -641,7 +647,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -677,9 +692,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -717,7 +732,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -823,7 +838,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -965,7 +980,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -973,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,83 +1340,83 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="D25" s="3">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="D26" s="3">
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="3">
+        <v>134</v>
+      </c>
+      <c r="D27" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>129</v>
+        <v>31</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
+        <v>152</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -1409,41 +1424,41 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>129</v>
+        <v>35</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -1451,21 +1466,21 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D34" s="3">
-        <v>899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>157</v>
@@ -1474,12 +1489,12 @@
         <v>41</v>
       </c>
       <c r="D35" s="3">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>157</v>
@@ -1488,12 +1503,12 @@
         <v>41</v>
       </c>
       <c r="D36" s="3">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>157</v>
@@ -1502,40 +1517,40 @@
         <v>41</v>
       </c>
       <c r="D37" s="3">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>129</v>
+        <v>41</v>
+      </c>
+      <c r="D38" s="3">
+        <v>898</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="3">
-        <v>166</v>
+        <v>138</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>157</v>
@@ -1544,74 +1559,74 @@
         <v>46</v>
       </c>
       <c r="D40" s="3">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>129</v>
+        <v>46</v>
+      </c>
+      <c r="D41" s="3">
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="3">
+        <v>154</v>
+      </c>
+      <c r="D43" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D44" s="3">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D45" s="3">
         <v>80</v>
@@ -1619,27 +1634,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D46" s="3">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
@@ -1647,77 +1662,77 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="2">
+        <v>108</v>
+      </c>
+      <c r="D48" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="3">
-        <v>40</v>
+        <v>110</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D50" s="3">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D51" s="3">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="2">
-        <v>33</v>
+        <v>61</v>
+      </c>
+      <c r="D52" s="3">
+        <v>745</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>156</v>
@@ -1726,12 +1741,12 @@
         <v>112</v>
       </c>
       <c r="D53" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>156</v>
@@ -1740,82 +1755,82 @@
         <v>112</v>
       </c>
       <c r="D54" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="3">
-        <v>2</v>
+        <v>112</v>
+      </c>
+      <c r="D55" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D56" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D57" s="3">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>129</v>
+        <v>67</v>
+      </c>
+      <c r="D58" s="3">
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="3">
-        <v>821</v>
+        <v>142</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>160</v>
@@ -1824,68 +1839,68 @@
         <v>68</v>
       </c>
       <c r="D60" s="3">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D61" s="3">
-        <v>750</v>
+        <v>819</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D62" s="3">
-        <v>553</v>
+        <v>750</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D63" s="3">
-        <v>72</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D64" s="3">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>157</v>
@@ -1894,12 +1909,12 @@
         <v>77</v>
       </c>
       <c r="D65" s="3">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>157</v>
@@ -1908,26 +1923,26 @@
         <v>77</v>
       </c>
       <c r="D66" s="3">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D67" s="3">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>163</v>
@@ -1936,26 +1951,26 @@
         <v>81</v>
       </c>
       <c r="D68" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D69" s="3">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>157</v>
@@ -1964,96 +1979,96 @@
         <v>84</v>
       </c>
       <c r="D70" s="3">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D71" s="3">
-        <v>1</v>
+        <v>695</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>129</v>
+        <v>87</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D73" s="3">
-        <v>107</v>
+        <v>144</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D74" s="2">
-        <v>918</v>
+        <v>89</v>
+      </c>
+      <c r="D74" s="3">
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="3">
-        <v>170</v>
+        <v>116</v>
+      </c>
+      <c r="D75" s="2">
+        <v>918</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D76" s="3">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>157</v>
@@ -2062,26 +2077,26 @@
         <v>91</v>
       </c>
       <c r="D77" s="3">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D78" s="3">
-        <v>160</v>
+        <v>799</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>162</v>
@@ -2090,12 +2105,12 @@
         <v>95</v>
       </c>
       <c r="D79" s="3">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>162</v>
@@ -2104,112 +2119,131 @@
         <v>95</v>
       </c>
       <c r="D80" s="3">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D81" s="3">
-        <v>211</v>
+        <v>762</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D82" s="2">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="D82" s="3">
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D83" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="D84" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D85" s="3">
+        <v>118</v>
+      </c>
+      <c r="D85" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="2" t="s">
+      <c r="B87" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D86" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D86">
-      <sortCondition ref="A1:A85"/>
+  <autoFilter ref="A1:D87" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D87">
+      <sortCondition ref="A1:A86"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D86">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
+  <conditionalFormatting sqref="A2:D24 A26:D87">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:D25">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D84:D86 D43:D58 D2:D41 D64:D81 D60:D63" numberStoredAsText="1"/>
+    <ignoredError sqref="D85:D87 D44:D59 D26:D42 D61:D82 D2:D24" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE964C9A-C465-4B44-B931-5C0E47C69C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A26B98-BFB7-44DF-A33C-0A9AE6C10F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -422,12 +422,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>AVENTAL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010007</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -540,6 +534,12 @@
   </si>
   <si>
     <t>S150189</t>
+  </si>
+  <si>
+    <t>AVENTAL C/ MANGA - UNICA</t>
+  </si>
+  <si>
+    <t>S150204</t>
   </si>
 </sst>
 </file>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1007,7 @@
         <v>121</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>122</v>
@@ -1021,7 +1021,7 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>103</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -1063,7 +1063,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>101</v>
@@ -1077,7 +1077,7 @@
         <v>124</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>125</v>
@@ -1088,16 +1088,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -1119,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -1133,7 +1133,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1147,7 +1147,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -1161,7 +1161,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -1175,7 +1175,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -1189,7 +1189,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -1200,16 +1200,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1217,7 +1217,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -1231,7 +1231,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -1242,10 +1242,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -1259,7 +1259,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -1287,7 +1287,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -1301,7 +1301,7 @@
         <v>104</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>105</v>
@@ -1315,7 +1315,7 @@
         <v>106</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>105</v>
@@ -1329,7 +1329,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>27</v>
@@ -1340,13 +1340,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -1357,7 +1357,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
@@ -1368,13 +1368,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1385,7 +1385,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>31</v>
@@ -1396,16 +1396,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1413,7 +1413,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>33</v>
@@ -1427,7 +1427,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>35</v>
@@ -1438,16 +1438,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>37</v>
@@ -1469,7 +1469,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>39</v>
@@ -1483,7 +1483,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>41</v>
@@ -1497,7 +1497,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>41</v>
@@ -1511,7 +1511,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>41</v>
@@ -1525,7 +1525,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>41</v>
@@ -1536,16 +1536,16 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1553,7 +1553,7 @@
         <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>46</v>
@@ -1567,7 +1567,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>46</v>
@@ -1578,27 +1578,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -1609,7 +1609,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>49</v>
@@ -1623,7 +1623,7 @@
         <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>51</v>
@@ -1637,7 +1637,7 @@
         <v>52</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>53</v>
@@ -1651,7 +1651,7 @@
         <v>54</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>55</v>
@@ -1665,7 +1665,7 @@
         <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>108</v>
@@ -1679,7 +1679,7 @@
         <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>110</v>
@@ -1693,7 +1693,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>57</v>
@@ -1707,7 +1707,7 @@
         <v>58</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>59</v>
@@ -1721,7 +1721,7 @@
         <v>60</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>61</v>
@@ -1735,7 +1735,7 @@
         <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>112</v>
@@ -1749,7 +1749,7 @@
         <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>112</v>
@@ -1763,7 +1763,7 @@
         <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>112</v>
@@ -1777,7 +1777,7 @@
         <v>62</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>63</v>
@@ -1791,7 +1791,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>65</v>
@@ -1805,7 +1805,7 @@
         <v>66</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>67</v>
@@ -1816,24 +1816,24 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>68</v>
@@ -1847,7 +1847,7 @@
         <v>69</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>68</v>
@@ -1861,7 +1861,7 @@
         <v>70</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>71</v>
@@ -1875,7 +1875,7 @@
         <v>72</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>73</v>
@@ -1889,7 +1889,7 @@
         <v>74</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>75</v>
@@ -1903,7 +1903,7 @@
         <v>76</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>77</v>
@@ -1917,7 +1917,7 @@
         <v>78</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>77</v>
@@ -1931,7 +1931,7 @@
         <v>79</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>77</v>
@@ -1945,7 +1945,7 @@
         <v>80</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>81</v>
@@ -1959,7 +1959,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>81</v>
@@ -1973,7 +1973,7 @@
         <v>85</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>84</v>
@@ -1987,7 +1987,7 @@
         <v>83</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>84</v>
@@ -2001,7 +2001,7 @@
         <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>87</v>
@@ -2012,16 +2012,16 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2029,7 +2029,7 @@
         <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>89</v>
@@ -2043,7 +2043,7 @@
         <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>116</v>
@@ -2057,7 +2057,7 @@
         <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>91</v>
@@ -2071,7 +2071,7 @@
         <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>91</v>
@@ -2085,7 +2085,7 @@
         <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>91</v>
@@ -2099,7 +2099,7 @@
         <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>95</v>
@@ -2113,7 +2113,7 @@
         <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>95</v>
@@ -2127,7 +2127,7 @@
         <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>95</v>
@@ -2141,7 +2141,7 @@
         <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>99</v>
@@ -2152,13 +2152,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D83" s="2">
         <v>1</v>
@@ -2166,13 +2166,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D84" s="2">
         <v>2</v>
@@ -2183,7 +2183,7 @@
         <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>118</v>
@@ -2197,7 +2197,7 @@
         <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>120</v>
@@ -2208,16 +2208,16 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2227,23 +2227,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D24 A26:D87">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
+  <conditionalFormatting sqref="A2:D6 A8:D87">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:D25">
+  <conditionalFormatting sqref="A7:D7">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A25))&gt;0</formula>
+      <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D85:D87 D44:D59 D26:D42 D61:D82 D2:D24" numberStoredAsText="1"/>
+    <ignoredError sqref="D85:D87 D44:D59 D26:D42 D61:D82 D2:D6 D8:D24" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A26B98-BFB7-44DF-A33C-0A9AE6C10F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AE716B-C0E5-48E9-BE6C-8EB8CFD4BD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="169">
   <si>
     <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
   </si>
@@ -540,6 +540,12 @@
   </si>
   <si>
     <t>S150204</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - UNICA</t>
+  </si>
+  <si>
+    <t>S020036</t>
   </si>
 </sst>
 </file>
@@ -988,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,91 +2004,91 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D72" s="3">
+        <v>168</v>
+      </c>
+      <c r="D72" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>87</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74" s="3">
-        <v>107</v>
+        <v>142</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D75" s="2">
-        <v>918</v>
+        <v>89</v>
+      </c>
+      <c r="D75" s="3">
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="3">
-        <v>170</v>
+        <v>116</v>
+      </c>
+      <c r="D76" s="2">
+        <v>918</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D77" s="3">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>155</v>
@@ -2091,26 +2097,26 @@
         <v>91</v>
       </c>
       <c r="D78" s="3">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D79" s="3">
-        <v>160</v>
+        <v>799</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>160</v>
@@ -2119,12 +2125,12 @@
         <v>95</v>
       </c>
       <c r="D80" s="3">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>160</v>
@@ -2133,117 +2139,131 @@
         <v>95</v>
       </c>
       <c r="D81" s="3">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D82" s="3">
-        <v>211</v>
+        <v>762</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D83" s="2">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="D83" s="3">
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D84" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="D85" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D86" s="3">
+        <v>118</v>
+      </c>
+      <c r="D86" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C87" s="2" t="s">
+      <c r="B88" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D87" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D87">
-      <sortCondition ref="A1:A86"/>
+  <autoFilter ref="A1:D88" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D88">
+      <sortCondition ref="A1:A87"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D6 A8:D87">
+  <conditionalFormatting sqref="A2:D88">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:D7">
+  <conditionalFormatting sqref="A72:D72">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A7))&gt;0</formula>
+      <formula>LEN(TRIM(A72))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D85:D87 D44:D59 D26:D42 D61:D82 D2:D6 D8:D24" numberStoredAsText="1"/>
+    <ignoredError sqref="D86:D88 D44:D59 D26:D42 D73:D83 D2:D6 D8:D24 D61:D69 D70:D71" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AE716B-C0E5-48E9-BE6C-8EB8CFD4BD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A940EB3-E345-4BCB-88ED-FFA228EFE647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="170">
   <si>
     <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
   </si>
@@ -398,12 +398,6 @@
     <t>S150190</t>
   </si>
   <si>
-    <t>TOUCA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010054</t>
-  </si>
-  <si>
     <t>Complemento</t>
   </si>
   <si>
@@ -546,6 +540,15 @@
   </si>
   <si>
     <t>S020036</t>
+  </si>
+  <si>
+    <t>TOUCA SANFONADA - DESCARTÁVEL - 100UN</t>
+  </si>
+  <si>
+    <t>S080015</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -996,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:XFD72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,16 +1013,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,7 +1030,7 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>103</v>
@@ -1041,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1055,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -1069,7 +1072,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>101</v>
@@ -1080,30 +1083,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1111,7 +1114,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -1125,7 +1128,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -1139,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1153,7 +1156,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -1167,7 +1170,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -1181,7 +1184,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -1195,7 +1198,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -1206,16 +1209,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1223,7 +1226,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -1237,7 +1240,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -1248,10 +1251,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -1265,7 +1268,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -1279,7 +1282,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -1293,7 +1296,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -1307,7 +1310,7 @@
         <v>104</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>105</v>
@@ -1321,7 +1324,7 @@
         <v>106</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>105</v>
@@ -1335,7 +1338,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>27</v>
@@ -1346,13 +1349,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -1363,7 +1366,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
@@ -1374,13 +1377,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1391,7 +1394,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>31</v>
@@ -1402,16 +1405,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1419,7 +1422,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>33</v>
@@ -1433,7 +1436,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>35</v>
@@ -1444,16 +1447,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1461,7 +1464,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>37</v>
@@ -1475,7 +1478,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>39</v>
@@ -1489,7 +1492,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>41</v>
@@ -1503,7 +1506,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>41</v>
@@ -1517,7 +1520,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>41</v>
@@ -1531,7 +1534,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>41</v>
@@ -1542,16 +1545,16 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1559,7 +1562,7 @@
         <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>46</v>
@@ -1573,7 +1576,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>46</v>
@@ -1584,27 +1587,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -1615,7 +1618,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>49</v>
@@ -1629,7 +1632,7 @@
         <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>51</v>
@@ -1643,7 +1646,7 @@
         <v>52</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>53</v>
@@ -1657,7 +1660,7 @@
         <v>54</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>55</v>
@@ -1671,7 +1674,7 @@
         <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>108</v>
@@ -1685,7 +1688,7 @@
         <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>110</v>
@@ -1699,7 +1702,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>57</v>
@@ -1713,7 +1716,7 @@
         <v>58</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>59</v>
@@ -1727,7 +1730,7 @@
         <v>60</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>61</v>
@@ -1741,7 +1744,7 @@
         <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>112</v>
@@ -1755,7 +1758,7 @@
         <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>112</v>
@@ -1769,7 +1772,7 @@
         <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>112</v>
@@ -1783,7 +1786,7 @@
         <v>62</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>63</v>
@@ -1797,7 +1800,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>65</v>
@@ -1811,7 +1814,7 @@
         <v>66</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>67</v>
@@ -1822,24 +1825,24 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>68</v>
@@ -1853,7 +1856,7 @@
         <v>69</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>68</v>
@@ -1867,7 +1870,7 @@
         <v>70</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>71</v>
@@ -1881,7 +1884,7 @@
         <v>72</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>73</v>
@@ -1895,7 +1898,7 @@
         <v>74</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>75</v>
@@ -1909,7 +1912,7 @@
         <v>76</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>77</v>
@@ -1923,7 +1926,7 @@
         <v>78</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>77</v>
@@ -1937,7 +1940,7 @@
         <v>79</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>77</v>
@@ -1951,7 +1954,7 @@
         <v>80</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>81</v>
@@ -1965,7 +1968,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>81</v>
@@ -1979,7 +1982,7 @@
         <v>85</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>84</v>
@@ -1993,7 +1996,7 @@
         <v>83</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>84</v>
@@ -2004,13 +2007,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D72" s="2">
         <v>1</v>
@@ -2021,7 +2024,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>87</v>
@@ -2032,16 +2035,16 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2049,7 +2052,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>89</v>
@@ -2063,7 +2066,7 @@
         <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>116</v>
@@ -2077,7 +2080,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>91</v>
@@ -2091,7 +2094,7 @@
         <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>91</v>
@@ -2105,7 +2108,7 @@
         <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>91</v>
@@ -2119,7 +2122,7 @@
         <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>95</v>
@@ -2133,7 +2136,7 @@
         <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>95</v>
@@ -2147,7 +2150,7 @@
         <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>95</v>
@@ -2161,7 +2164,7 @@
         <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>99</v>
@@ -2172,13 +2175,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D84" s="2">
         <v>1</v>
@@ -2186,13 +2189,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D85" s="2">
         <v>2</v>
@@ -2203,7 +2206,7 @@
         <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>118</v>
@@ -2214,30 +2217,30 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D87" s="3">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2247,23 +2250,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D88">
+  <conditionalFormatting sqref="A2:D86 A88:D88">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:D72">
+  <conditionalFormatting sqref="A87:D87">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A72))&gt;0</formula>
+      <formula>LEN(TRIM(A87))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D86:D88 D44:D59 D26:D42 D73:D83 D2:D6 D8:D24 D61:D69 D70:D71" numberStoredAsText="1"/>
+    <ignoredError sqref="D86 D44:D59 D26:D42 D73:D83 D2:D6 D8:D24 D61:D69 D70:D71 D88" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A940EB3-E345-4BCB-88ED-FFA228EFE647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD822B03-64D4-44E7-A11C-A60FE1A1ED45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -251,12 +251,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL FILME PVC - 300 M</t>
-  </si>
-  <si>
-    <t>S010039</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO - 300MT</t>
   </si>
   <si>
@@ -549,6 +543,12 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>FILME PVC PLASTICO - 300 M</t>
+  </si>
+  <si>
+    <t>S050019</t>
   </si>
 </sst>
 </file>
@@ -999,9 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:D87"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1013,27 +1011,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -1044,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1058,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -1069,13 +1067,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D5" s="3">
         <v>53</v>
@@ -1083,30 +1081,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1114,7 +1112,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -1128,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -1142,7 +1140,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1156,7 +1154,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -1170,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -1184,7 +1182,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -1198,7 +1196,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -1209,16 +1207,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1226,7 +1224,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -1240,7 +1238,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -1251,10 +1249,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -1268,7 +1266,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -1282,7 +1280,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -1296,7 +1294,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -1307,13 +1305,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D22" s="3">
         <v>904</v>
@@ -1321,13 +1319,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D23" s="3">
         <v>903</v>
@@ -1338,7 +1336,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>27</v>
@@ -1349,13 +1347,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -1366,7 +1364,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
@@ -1377,13 +1375,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1394,7 +1392,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>31</v>
@@ -1405,16 +1403,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1422,7 +1420,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>33</v>
@@ -1436,7 +1434,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>35</v>
@@ -1447,16 +1445,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1464,7 +1462,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>37</v>
@@ -1478,7 +1476,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>39</v>
@@ -1492,7 +1490,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>41</v>
@@ -1506,7 +1504,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>41</v>
@@ -1520,7 +1518,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>41</v>
@@ -1534,7 +1532,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>41</v>
@@ -1545,111 +1543,111 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="3">
-        <v>166</v>
+        <v>169</v>
+      </c>
+      <c r="D40" s="2">
+        <v>750</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="3">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>125</v>
+        <v>46</v>
+      </c>
+      <c r="D42" s="3">
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1</v>
+        <v>134</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="3">
+        <v>148</v>
+      </c>
+      <c r="D44" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D45" s="3">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D46" s="3">
         <v>80</v>
@@ -1657,27 +1655,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D47" s="3">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -1685,209 +1683,209 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49" s="2">
+        <v>106</v>
+      </c>
+      <c r="D49" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="3">
-        <v>40</v>
+        <v>108</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D51" s="3">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D52" s="3">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="2">
-        <v>33</v>
+        <v>61</v>
+      </c>
+      <c r="D53" s="3">
+        <v>745</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D54" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D55" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="3">
-        <v>2</v>
+        <v>110</v>
+      </c>
+      <c r="D56" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D57" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D58" s="3">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>125</v>
+        <v>67</v>
+      </c>
+      <c r="D59" s="3">
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="3">
-        <v>821</v>
+        <v>136</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D61" s="3">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D62" s="3">
-        <v>750</v>
+        <v>819</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D63" s="3">
         <v>553</v>
@@ -1895,13 +1893,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D64" s="3">
         <v>72</v>
@@ -1909,13 +1907,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D65" s="3">
         <v>86</v>
@@ -1923,13 +1921,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D66" s="3">
         <v>87</v>
@@ -1937,13 +1935,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D67" s="3">
         <v>88</v>
@@ -1951,13 +1949,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D68" s="3">
         <v>55</v>
@@ -1965,13 +1963,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D69" s="3">
         <v>54</v>
@@ -1979,13 +1977,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D70" s="3">
         <v>994</v>
@@ -1993,13 +1991,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D71" s="3">
         <v>695</v>
@@ -2007,13 +2005,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D72" s="2">
         <v>1</v>
@@ -2021,13 +2019,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D73" s="3">
         <v>1</v>
@@ -2035,27 +2033,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D75" s="3">
         <v>107</v>
@@ -2063,13 +2061,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D76" s="2">
         <v>918</v>
@@ -2077,13 +2075,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D77" s="3">
         <v>170</v>
@@ -2091,13 +2089,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D78" s="3">
         <v>163</v>
@@ -2105,13 +2103,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D79" s="3">
         <v>799</v>
@@ -2119,13 +2117,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D80" s="3">
         <v>160</v>
@@ -2133,13 +2131,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D81" s="3">
         <v>569</v>
@@ -2147,13 +2145,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D82" s="3">
         <v>762</v>
@@ -2161,13 +2159,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D83" s="3">
         <v>211</v>
@@ -2175,13 +2173,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D84" s="2">
         <v>1</v>
@@ -2189,13 +2187,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D85" s="2">
         <v>2</v>
@@ -2203,13 +2201,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D86" s="2">
         <v>1</v>
@@ -2217,56 +2215,53 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D88" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D88">
-      <sortCondition ref="A1:A87"/>
+      <sortCondition ref="A1:A88"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D86 A88:D88">
+  <conditionalFormatting sqref="A2:D61 A63:D88">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87:D87">
+  <conditionalFormatting sqref="A62:D62">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A87))&gt;0</formula>
+      <formula>LEN(TRIM(A62))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="D86 D44:D59 D26:D42 D73:D83 D2:D6 D8:D24 D61:D69 D70:D71 D88" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD822B03-64D4-44E7-A11C-A60FE1A1ED45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F366EFA-AFA1-47EB-A812-B6AC735EE591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -149,9 +149,6 @@
     <t>S050018</t>
   </si>
   <si>
-    <t>ESPONJA DUPLA FACE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010018</t>
   </si>
   <si>
@@ -549,6 +546,9 @@
   </si>
   <si>
     <t>S050019</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
   </si>
 </sst>
 </file>
@@ -999,7 +999,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:D33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1011,27 +1013,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -1042,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1056,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -1067,13 +1069,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D5" s="3">
         <v>53</v>
@@ -1081,30 +1083,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1112,7 +1114,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -1126,7 +1128,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -1140,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1154,7 +1156,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -1168,7 +1170,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -1182,7 +1184,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -1196,7 +1198,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -1207,16 +1209,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1224,7 +1226,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -1238,7 +1240,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -1249,10 +1251,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -1266,7 +1268,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -1280,7 +1282,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -1294,7 +1296,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -1305,13 +1307,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D22" s="3">
         <v>904</v>
@@ -1319,13 +1321,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" s="3">
         <v>903</v>
@@ -1336,7 +1338,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>27</v>
@@ -1347,13 +1349,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -1364,7 +1366,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
@@ -1375,13 +1377,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1392,7 +1394,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>31</v>
@@ -1403,16 +1405,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1420,7 +1422,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>33</v>
@@ -1434,7 +1436,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>35</v>
@@ -1445,41 +1447,41 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
+      <c r="D33" s="2">
+        <v>1159</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -1487,13 +1489,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D35" s="3">
         <v>899</v>
@@ -1501,13 +1503,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="3">
         <v>896</v>
@@ -1515,13 +1517,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" s="3">
         <v>900</v>
@@ -1529,13 +1531,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38" s="3">
         <v>898</v>
@@ -1543,27 +1545,27 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="D40" s="2">
         <v>750</v>
@@ -1571,13 +1573,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D41" s="3">
         <v>166</v>
@@ -1585,13 +1587,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="3">
         <v>167</v>
@@ -1599,27 +1601,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -1627,13 +1629,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
@@ -1641,13 +1643,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D46" s="3">
         <v>80</v>
@@ -1655,13 +1657,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D47" s="3">
         <v>80</v>
@@ -1669,13 +1671,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -1683,13 +1685,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -1697,13 +1699,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -1711,13 +1713,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D51" s="3">
         <v>40</v>
@@ -1725,13 +1727,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -1739,13 +1741,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D53" s="3">
         <v>745</v>
@@ -1753,13 +1755,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D54" s="2">
         <v>33</v>
@@ -1767,13 +1769,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D55" s="2">
         <v>32</v>
@@ -1781,13 +1783,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D56" s="2">
         <v>31</v>
@@ -1795,13 +1797,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D57" s="3">
         <v>2</v>
@@ -1809,13 +1811,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D58" s="3">
         <v>1</v>
@@ -1823,13 +1825,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D59" s="3">
         <v>211</v>
@@ -1837,27 +1839,27 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="D60" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D61" s="3">
         <v>821</v>
@@ -1865,13 +1867,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D62" s="3">
         <v>819</v>
@@ -1879,13 +1881,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D63" s="3">
         <v>553</v>
@@ -1893,13 +1895,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="D64" s="3">
         <v>72</v>
@@ -1907,13 +1909,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D65" s="3">
         <v>86</v>
@@ -1921,13 +1923,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D66" s="3">
         <v>87</v>
@@ -1935,13 +1937,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D67" s="3">
         <v>88</v>
@@ -1949,13 +1951,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D68" s="3">
         <v>55</v>
@@ -1963,13 +1965,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D69" s="3">
         <v>54</v>
@@ -1977,13 +1979,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D70" s="3">
         <v>994</v>
@@ -1991,13 +1993,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D71" s="3">
         <v>695</v>
@@ -2005,13 +2007,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="D72" s="2">
         <v>1</v>
@@ -2019,13 +2021,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D73" s="3">
         <v>1</v>
@@ -2033,27 +2035,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="D74" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D75" s="3">
         <v>107</v>
@@ -2061,13 +2063,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="D76" s="2">
         <v>918</v>
@@ -2075,13 +2077,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D77" s="3">
         <v>170</v>
@@ -2089,13 +2091,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D78" s="3">
         <v>163</v>
@@ -2103,13 +2105,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D79" s="3">
         <v>799</v>
@@ -2117,13 +2119,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D80" s="3">
         <v>160</v>
@@ -2131,13 +2133,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D81" s="3">
         <v>569</v>
@@ -2145,13 +2147,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D82" s="3">
         <v>762</v>
@@ -2159,13 +2161,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D83" s="3">
         <v>211</v>
@@ -2173,13 +2175,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D84" s="2">
         <v>1</v>
@@ -2187,13 +2189,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D85" s="2">
         <v>2</v>
@@ -2201,13 +2203,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D86" s="2">
         <v>1</v>
@@ -2215,30 +2217,30 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2248,18 +2250,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D61 A63:D88">
+  <conditionalFormatting sqref="A2:D32 A34:D88">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62:D62">
+  <conditionalFormatting sqref="A33:D33">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A62))&gt;0</formula>
+      <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F366EFA-AFA1-47EB-A812-B6AC735EE591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFF604F-AD4D-4DF8-A949-5B2570010EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -359,12 +359,6 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>LENCOL HOSPITALAR PAPEL 50CMX50M - UNICA</t>
-  </si>
-  <si>
-    <t>S010084</t>
-  </si>
-  <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G - TAMANHO G</t>
   </si>
   <si>
@@ -549,6 +543,12 @@
   </si>
   <si>
     <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
+  </si>
+  <si>
+    <t>LENCOL HOSPITALAR DE PAPEL - 50CMX50M</t>
+  </si>
+  <si>
+    <t>S010024</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:D33"/>
+      <selection activeCell="A50" sqref="A50:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,16 +1013,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>100</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1058,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -1072,7 +1072,7 @@
         <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>98</v>
@@ -1083,30 +1083,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1114,7 +1114,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -1128,7 +1128,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -1142,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1156,7 +1156,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -1170,7 +1170,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -1184,7 +1184,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -1198,7 +1198,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -1209,16 +1209,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -1240,7 +1240,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -1268,7 +1268,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -1282,7 +1282,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -1296,7 +1296,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -1310,7 +1310,7 @@
         <v>101</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>102</v>
@@ -1324,7 +1324,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>102</v>
@@ -1338,7 +1338,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>27</v>
@@ -1349,13 +1349,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -1366,7 +1366,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1394,7 +1394,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>31</v>
@@ -1405,16 +1405,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>33</v>
@@ -1436,7 +1436,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>35</v>
@@ -1447,24 +1447,24 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>36</v>
@@ -1478,7 +1478,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>38</v>
@@ -1492,7 +1492,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>40</v>
@@ -1506,7 +1506,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>40</v>
@@ -1520,7 +1520,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>40</v>
@@ -1534,7 +1534,7 @@
         <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>40</v>
@@ -1545,27 +1545,27 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D40" s="2">
         <v>750</v>
@@ -1576,7 +1576,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>45</v>
@@ -1590,7 +1590,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>45</v>
@@ -1601,27 +1601,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -1632,7 +1632,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>48</v>
@@ -1646,7 +1646,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>50</v>
@@ -1660,7 +1660,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>52</v>
@@ -1674,7 +1674,7 @@
         <v>53</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>54</v>
@@ -1688,7 +1688,7 @@
         <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>105</v>
@@ -1699,16 +1699,16 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="D50" s="2">
-        <v>1</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1716,7 +1716,7 @@
         <v>55</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>56</v>
@@ -1730,7 +1730,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>58</v>
@@ -1744,7 +1744,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>60</v>
@@ -1755,13 +1755,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D54" s="2">
         <v>33</v>
@@ -1769,13 +1769,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D55" s="2">
         <v>32</v>
@@ -1783,13 +1783,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D56" s="2">
         <v>31</v>
@@ -1800,7 +1800,7 @@
         <v>61</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>62</v>
@@ -1814,7 +1814,7 @@
         <v>63</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>64</v>
@@ -1828,7 +1828,7 @@
         <v>65</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>66</v>
@@ -1839,24 +1839,24 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>67</v>
@@ -1870,7 +1870,7 @@
         <v>68</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>67</v>
@@ -1884,7 +1884,7 @@
         <v>69</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>70</v>
@@ -1898,7 +1898,7 @@
         <v>71</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>72</v>
@@ -1912,7 +1912,7 @@
         <v>73</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>74</v>
@@ -1926,7 +1926,7 @@
         <v>75</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>74</v>
@@ -1940,7 +1940,7 @@
         <v>76</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>74</v>
@@ -1954,7 +1954,7 @@
         <v>77</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>78</v>
@@ -1968,7 +1968,7 @@
         <v>79</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>78</v>
@@ -1982,7 +1982,7 @@
         <v>82</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>81</v>
@@ -1996,7 +1996,7 @@
         <v>80</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>81</v>
@@ -2007,13 +2007,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D72" s="2">
         <v>1</v>
@@ -2024,7 +2024,7 @@
         <v>83</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>84</v>
@@ -2035,16 +2035,16 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2052,7 +2052,7 @@
         <v>85</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>86</v>
@@ -2063,13 +2063,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D76" s="2">
         <v>918</v>
@@ -2080,7 +2080,7 @@
         <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>88</v>
@@ -2094,7 +2094,7 @@
         <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>88</v>
@@ -2108,7 +2108,7 @@
         <v>90</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>88</v>
@@ -2122,7 +2122,7 @@
         <v>91</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>92</v>
@@ -2136,7 +2136,7 @@
         <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>92</v>
@@ -2150,7 +2150,7 @@
         <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>92</v>
@@ -2164,7 +2164,7 @@
         <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>96</v>
@@ -2175,13 +2175,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D84" s="2">
         <v>1</v>
@@ -2189,13 +2189,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D85" s="2">
         <v>2</v>
@@ -2203,13 +2203,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D86" s="2">
         <v>1</v>
@@ -2217,30 +2217,30 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2250,18 +2250,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D32 A34:D88">
+  <conditionalFormatting sqref="A2:D49 A51:D88">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:D33">
+  <conditionalFormatting sqref="A50:D50">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A33))&gt;0</formula>
+      <formula>LEN(TRIM(A50))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFF604F-AD4D-4DF8-A949-5B2570010EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C851891-9D57-4482-8E6B-DD21D8D4A530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="167">
   <si>
     <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
   </si>
@@ -131,18 +131,6 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>DISPENSER P/ SABONETE LIQ. - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110014</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL TOALHA - UNICA</t>
-  </si>
-  <si>
-    <t>S010063</t>
-  </si>
-  <si>
     <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
   </si>
   <si>
@@ -413,9 +401,6 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL - UNICA</t>
-  </si>
-  <si>
     <t>S010087</t>
   </si>
   <si>
@@ -467,12 +452,6 @@
     <t>TESOURA ESCOLAR - UNICA</t>
   </si>
   <si>
-    <t>DISPENSER PAPEL HIGIENICO - UNICA</t>
-  </si>
-  <si>
-    <t>S010064</t>
-  </si>
-  <si>
     <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
   </si>
   <si>
@@ -549,6 +528,18 @@
   </si>
   <si>
     <t>S010024</t>
+  </si>
+  <si>
+    <t>DISPENSER - ALCOOL EM GEL</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>DISPENSER - SABONETE LIQUIDO</t>
   </si>
 </sst>
 </file>
@@ -999,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:D50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,27 +1004,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -1044,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1058,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -1069,13 +1060,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D5" s="3">
         <v>53</v>
@@ -1083,30 +1074,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1114,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -1128,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -1142,7 +1133,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1156,7 +1147,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -1170,7 +1161,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -1184,7 +1175,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -1198,7 +1189,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -1209,16 +1200,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1226,7 +1217,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -1240,7 +1231,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -1251,10 +1242,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -1268,7 +1259,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -1282,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -1296,7 +1287,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -1307,13 +1298,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D22" s="3">
         <v>904</v>
@@ -1321,13 +1312,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D23" s="3">
         <v>903</v>
@@ -1338,7 +1329,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>27</v>
@@ -1349,13 +1340,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -1366,7 +1357,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
@@ -1377,69 +1368,69 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D27" s="2">
-        <v>1</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1177</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="2" t="s">
         <v>120</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1178</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1179</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -1447,27 +1438,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
         <v>1159</v>
@@ -1475,13 +1466,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -1489,13 +1480,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D35" s="3">
         <v>899</v>
@@ -1503,13 +1494,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D36" s="3">
         <v>896</v>
@@ -1517,13 +1508,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D37" s="3">
         <v>900</v>
@@ -1531,13 +1522,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D38" s="3">
         <v>898</v>
@@ -1545,27 +1536,27 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D40" s="2">
         <v>750</v>
@@ -1573,13 +1564,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D41" s="3">
         <v>166</v>
@@ -1587,13 +1578,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D42" s="3">
         <v>167</v>
@@ -1601,27 +1592,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -1629,13 +1620,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
@@ -1643,13 +1634,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D46" s="3">
         <v>80</v>
@@ -1657,13 +1648,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D47" s="3">
         <v>80</v>
@@ -1671,13 +1662,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -1685,13 +1676,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -1699,13 +1690,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D50" s="2">
         <v>1163</v>
@@ -1713,13 +1704,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D51" s="3">
         <v>40</v>
@@ -1727,13 +1718,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -1741,13 +1732,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D53" s="3">
         <v>745</v>
@@ -1755,13 +1746,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D54" s="2">
         <v>33</v>
@@ -1769,13 +1760,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D55" s="2">
         <v>32</v>
@@ -1783,13 +1774,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D56" s="2">
         <v>31</v>
@@ -1797,13 +1788,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D57" s="3">
         <v>2</v>
@@ -1811,13 +1802,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D58" s="3">
         <v>1</v>
@@ -1825,13 +1816,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D59" s="3">
         <v>211</v>
@@ -1839,27 +1830,27 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D61" s="3">
         <v>821</v>
@@ -1867,13 +1858,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D62" s="3">
         <v>819</v>
@@ -1881,13 +1872,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D63" s="3">
         <v>553</v>
@@ -1895,13 +1886,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D64" s="3">
         <v>72</v>
@@ -1909,13 +1900,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D65" s="3">
         <v>86</v>
@@ -1923,13 +1914,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D66" s="3">
         <v>87</v>
@@ -1937,13 +1928,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D67" s="3">
         <v>88</v>
@@ -1951,13 +1942,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D68" s="3">
         <v>55</v>
@@ -1965,13 +1956,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D69" s="3">
         <v>54</v>
@@ -1979,13 +1970,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D70" s="3">
         <v>994</v>
@@ -1993,13 +1984,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D71" s="3">
         <v>695</v>
@@ -2007,13 +1998,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D72" s="2">
         <v>1</v>
@@ -2021,13 +2012,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D73" s="3">
         <v>1</v>
@@ -2035,27 +2026,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D75" s="3">
         <v>107</v>
@@ -2063,13 +2054,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D76" s="2">
         <v>918</v>
@@ -2077,13 +2068,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D77" s="3">
         <v>170</v>
@@ -2091,13 +2082,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D78" s="3">
         <v>163</v>
@@ -2105,13 +2096,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D79" s="3">
         <v>799</v>
@@ -2119,13 +2110,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D80" s="3">
         <v>160</v>
@@ -2133,13 +2124,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D81" s="3">
         <v>569</v>
@@ -2147,13 +2138,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D82" s="3">
         <v>762</v>
@@ -2161,13 +2152,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D83" s="3">
         <v>211</v>
@@ -2175,13 +2166,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D84" s="2">
         <v>1</v>
@@ -2189,13 +2180,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D85" s="2">
         <v>2</v>
@@ -2203,13 +2194,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D86" s="2">
         <v>1</v>
@@ -2217,30 +2208,30 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2250,18 +2241,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D49 A51:D88">
+  <conditionalFormatting sqref="A2:D26 A31:D88">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:D50">
+  <conditionalFormatting sqref="A27:D30">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A50))&gt;0</formula>
+      <formula>LEN(TRIM(A27))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C851891-9D57-4482-8E6B-DD21D8D4A530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E19149C-DA93-40EE-ACDD-EE2966FF058E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="167">
-  <si>
-    <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="167">
   <si>
     <t>S010004</t>
   </si>
@@ -170,9 +167,6 @@
     <t>FITA ADESIVA TRANSPARENTE - 45CMX45M</t>
   </si>
   <si>
-    <t>FLANELA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010021</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010032</t>
   </si>
   <si>
@@ -347,18 +338,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010031</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P - TAMANHO P</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -422,9 +404,6 @@
     <t>S230009</t>
   </si>
   <si>
-    <t>PANO DE PRATO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -540,6 +519,27 @@
   </si>
   <si>
     <t>DISPENSER - SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - UNICA</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO - 50X75CM</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,61 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -990,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,27 +1058,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -1032,27 +1086,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="D4" s="3">
         <v>103</v>
@@ -1060,13 +1114,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D5" s="3">
         <v>53</v>
@@ -1074,41 +1128,41 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D8" s="3">
         <v>809</v>
@@ -1116,13 +1170,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D9" s="3">
         <v>1045</v>
@@ -1130,13 +1184,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D10" s="3">
         <v>103</v>
@@ -1144,13 +1198,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3">
         <v>33</v>
@@ -1158,13 +1212,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D12" s="3">
         <v>31</v>
@@ -1172,13 +1226,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D13" s="3">
         <v>20</v>
@@ -1186,13 +1240,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -1200,27 +1254,27 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
@@ -1228,13 +1282,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
@@ -1242,13 +1296,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2">
         <v>4</v>
@@ -1256,13 +1310,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -1270,13 +1324,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -1284,13 +1338,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D21" s="3">
         <v>52</v>
@@ -1298,13 +1352,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D22" s="3">
         <v>904</v>
@@ -1312,13 +1366,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D23" s="3">
         <v>903</v>
@@ -1326,13 +1380,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D24" s="3">
         <v>109</v>
@@ -1340,13 +1394,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -1354,13 +1408,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D26" s="3">
         <v>103</v>
@@ -1368,13 +1422,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D27" s="2">
         <v>1176</v>
@@ -1382,13 +1436,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D28" s="2">
         <v>1177</v>
@@ -1396,13 +1450,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D29" s="2">
         <v>1178</v>
@@ -1410,13 +1464,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D30" s="2">
         <v>1179</v>
@@ -1424,13 +1478,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -1438,27 +1492,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2">
         <v>1159</v>
@@ -1466,13 +1520,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -1480,13 +1534,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D35" s="3">
         <v>899</v>
@@ -1494,13 +1548,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="3">
         <v>896</v>
@@ -1508,13 +1562,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="3">
         <v>900</v>
@@ -1522,13 +1576,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="3">
         <v>898</v>
@@ -1536,27 +1590,27 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D40" s="2">
         <v>750</v>
@@ -1564,13 +1618,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D41" s="3">
         <v>166</v>
@@ -1578,13 +1632,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="3">
         <v>167</v>
@@ -1592,27 +1646,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -1620,27 +1674,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="D45" s="2">
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D46" s="3">
         <v>80</v>
@@ -1648,13 +1702,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D47" s="3">
         <v>80</v>
@@ -1662,13 +1716,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -1676,13 +1730,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -1690,13 +1744,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D50" s="2">
         <v>1163</v>
@@ -1704,13 +1758,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D51" s="3">
         <v>40</v>
@@ -1718,13 +1772,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -1732,13 +1786,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D53" s="3">
         <v>745</v>
@@ -1746,13 +1800,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D54" s="2">
         <v>33</v>
@@ -1760,13 +1814,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D55" s="2">
         <v>32</v>
@@ -1774,13 +1828,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D56" s="2">
         <v>31</v>
@@ -1788,13 +1842,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D57" s="3">
         <v>2</v>
@@ -1802,27 +1856,27 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="3">
+        <v>57</v>
+      </c>
+      <c r="D58" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D59" s="3">
         <v>211</v>
@@ -1830,27 +1884,27 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1167</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D61" s="3">
         <v>821</v>
@@ -1858,13 +1912,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D62" s="3">
         <v>819</v>
@@ -1872,13 +1926,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D63" s="3">
         <v>553</v>
@@ -1886,13 +1940,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D64" s="3">
         <v>72</v>
@@ -1900,13 +1954,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D65" s="3">
         <v>86</v>
@@ -1914,13 +1968,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D66" s="3">
         <v>87</v>
@@ -1928,13 +1982,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D67" s="3">
         <v>88</v>
@@ -1942,13 +1996,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D68" s="3">
         <v>55</v>
@@ -1956,13 +2010,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D69" s="3">
         <v>54</v>
@@ -1970,13 +2024,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D70" s="3">
         <v>994</v>
@@ -1984,13 +2038,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D71" s="3">
         <v>695</v>
@@ -1998,13 +2052,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D72" s="2">
         <v>1</v>
@@ -2012,13 +2066,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D73" s="3">
         <v>1</v>
@@ -2026,27 +2080,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D75" s="3">
         <v>107</v>
@@ -2054,13 +2108,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D76" s="2">
         <v>918</v>
@@ -2068,13 +2122,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D77" s="3">
         <v>170</v>
@@ -2082,13 +2136,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D78" s="3">
         <v>163</v>
@@ -2096,13 +2150,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D79" s="3">
         <v>799</v>
@@ -2110,13 +2164,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D80" s="3">
         <v>160</v>
@@ -2124,13 +2178,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D81" s="3">
         <v>569</v>
@@ -2138,13 +2192,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D82" s="3">
         <v>762</v>
@@ -2152,13 +2206,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D83" s="3">
         <v>211</v>
@@ -2166,13 +2220,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D84" s="2">
         <v>1</v>
@@ -2180,13 +2234,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D85" s="2">
         <v>2</v>
@@ -2194,13 +2248,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D86" s="2">
         <v>1</v>
@@ -2208,30 +2262,30 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2241,18 +2295,48 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D26 A31:D88">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D2 A4:D44 A46:D53 A57:D57 A59:D59 A61:D88">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:D30">
+  <conditionalFormatting sqref="A3:D3">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:D45">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(A45))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:D56">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(B54))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A56">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A54))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:D58">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(B58))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A58))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:D60">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A27))&gt;0</formula>
+      <formula>LEN(TRIM(A60))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E19149C-DA93-40EE-ACDD-EE2966FF058E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E6A4F3-8949-4E27-82BA-F36296D17AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$87</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="166">
   <si>
     <t>S010004</t>
   </si>
@@ -327,9 +327,6 @@
   </si>
   <si>
     <t>S010009</t>
-  </si>
-  <si>
-    <t>COLETOR PERFURO-CORTANTE - 7LTS</t>
   </si>
   <si>
     <t>LANCETAS - UNICA</t>
@@ -647,70 +644,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1042,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:D60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,16 +992,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,7 +1009,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>93</v>
@@ -1086,10 +1020,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1103,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -1117,7 +1051,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>91</v>
@@ -1128,30 +1062,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1159,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -1173,7 +1107,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -1187,7 +1121,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -1201,7 +1135,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1215,7 +1149,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1229,7 +1163,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -1243,7 +1177,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -1254,16 +1188,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1271,7 +1205,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
@@ -1285,7 +1219,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -1296,10 +1230,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
@@ -1313,7 +1247,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -1327,7 +1261,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
@@ -1341,7 +1275,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>24</v>
@@ -1355,7 +1289,7 @@
         <v>94</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>95</v>
@@ -1366,58 +1300,58 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="D23" s="3">
-        <v>903</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="D24" s="3">
-        <v>109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="D25" s="3">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="3">
-        <v>103</v>
+        <v>113</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1176</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1425,13 +1359,13 @@
         <v>156</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" s="2">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1439,13 +1373,13 @@
         <v>157</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D28" s="2">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1453,248 +1387,248 @@
         <v>158</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D29" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1179</v>
+        <v>30</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>110</v>
+        <v>31</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1159</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1159</v>
+        <v>33</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D34" s="3">
-        <v>1</v>
+        <v>899</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="3">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D36" s="3">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="3">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="3">
-        <v>898</v>
+        <v>117</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>110</v>
+        <v>151</v>
+      </c>
+      <c r="D39" s="2">
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D40" s="2">
-        <v>750</v>
+        <v>40</v>
+      </c>
+      <c r="D40" s="3">
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D41" s="3">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="3">
-        <v>167</v>
+        <v>119</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="2">
-        <v>448</v>
+        <v>44</v>
+      </c>
+      <c r="D45" s="3">
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D46" s="3">
         <v>80</v>
@@ -1702,27 +1636,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D47" s="3">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -1730,72 +1664,72 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="3">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1163</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1163</v>
+        <v>50</v>
+      </c>
+      <c r="D50" s="3">
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D51" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D52" s="3">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="3">
-        <v>745</v>
+        <v>98</v>
+      </c>
+      <c r="D53" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1803,13 +1737,13 @@
         <v>162</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D54" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,526 +1751,477 @@
         <v>163</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D55" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="2">
-        <v>31</v>
+        <v>56</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="3">
-        <v>2</v>
+        <v>57</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="D58" s="3">
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="3">
-        <v>211</v>
+        <v>120</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1167</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1167</v>
+        <v>60</v>
+      </c>
+      <c r="D60" s="3">
+        <v>821</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D61" s="3">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D62" s="3">
-        <v>819</v>
+        <v>553</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D63" s="3">
-        <v>553</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D64" s="3">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D65" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D66" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D67" s="3">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D68" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D69" s="3">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D70" s="3">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D71" s="3">
-        <v>695</v>
+        <v>146</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D72" s="2">
+        <v>77</v>
+      </c>
+      <c r="D72" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D73" s="3">
-        <v>1</v>
+        <v>122</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>79</v>
+      </c>
+      <c r="D74" s="3">
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" s="3">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="D75" s="2">
+        <v>918</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D76" s="2">
-        <v>918</v>
+        <v>81</v>
+      </c>
+      <c r="D76" s="3">
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D77" s="3">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D78" s="3">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D79" s="3">
-        <v>799</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D80" s="3">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D81" s="3">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D82" s="3">
-        <v>762</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D83" s="3">
-        <v>211</v>
+        <v>123</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D84" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D85" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D86" s="2">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D88" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D88">
-      <sortCondition ref="A1:A88"/>
+  <autoFilter ref="A1:D87" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D87">
+      <sortCondition ref="A1:A87"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="1" priority="16">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D2 A4:D44 A46:D53 A57:D57 A59:D59 A61:D88">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+  <conditionalFormatting sqref="A2:D87">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:D3">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:D45">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(A45))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54:D56">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(B54))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:A56">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A54))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58:D58">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(B58))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A58))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:D60">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A60))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E6A4F3-8949-4E27-82BA-F36296D17AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65332166-63F4-492D-8D17-5303AF5A9C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -317,9 +317,6 @@
     <t>S010005</t>
   </si>
   <si>
-    <t>AGULHA - UNICA</t>
-  </si>
-  <si>
     <t>S010072</t>
   </si>
   <si>
@@ -335,9 +332,6 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>S010031</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -524,19 +518,25 @@
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
-  </si>
-  <si>
     <t>MASCARA DESCARTAVEL - UNICA</t>
   </si>
   <si>
     <t>PANO DE PRATO - 50X75CM</t>
+  </si>
+  <si>
+    <t>AGULHA 12X40MM - 100UN</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>S080023</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,43 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -978,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,38 +1028,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1037,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -1051,7 +1087,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>91</v>
@@ -1062,30 +1098,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1093,7 +1129,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -1107,7 +1143,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -1121,7 +1157,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -1135,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1149,7 +1185,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1163,7 +1199,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -1177,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -1188,16 +1224,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1205,7 +1241,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
@@ -1219,7 +1255,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -1230,10 +1266,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
@@ -1247,7 +1283,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -1261,7 +1297,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
@@ -1275,7 +1311,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>24</v>
@@ -1286,13 +1322,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D22" s="3">
         <v>904</v>
@@ -1303,7 +1339,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -1314,13 +1350,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -1331,7 +1367,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>28</v>
@@ -1342,13 +1378,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D26" s="2">
         <v>1176</v>
@@ -1356,13 +1392,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D27" s="2">
         <v>1177</v>
@@ -1370,13 +1406,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D28" s="2">
         <v>1178</v>
@@ -1384,13 +1420,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D29" s="2">
         <v>1179</v>
@@ -1401,7 +1437,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>30</v>
@@ -1412,30 +1448,30 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="2">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1443,7 +1479,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>33</v>
@@ -1457,7 +1493,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>35</v>
@@ -1471,7 +1507,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>35</v>
@@ -1485,7 +1521,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>35</v>
@@ -1499,7 +1535,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>35</v>
@@ -1510,27 +1546,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D39" s="2">
         <v>750</v>
@@ -1541,7 +1577,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>40</v>
@@ -1555,7 +1591,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>40</v>
@@ -1566,27 +1602,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -1594,10 +1630,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>42</v>
@@ -1611,7 +1647,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>44</v>
@@ -1625,7 +1661,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>46</v>
@@ -1639,7 +1675,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>48</v>
@@ -1650,13 +1686,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -1664,13 +1700,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" s="2">
         <v>1163</v>
@@ -1681,7 +1717,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>50</v>
@@ -1695,7 +1731,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>52</v>
@@ -1709,7 +1745,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>54</v>
@@ -1720,13 +1756,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="D53" s="2">
         <v>33</v>
@@ -1734,13 +1770,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="D54" s="2">
         <v>32</v>
@@ -1748,13 +1784,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D55" s="2">
         <v>31</v>
@@ -1765,7 +1801,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>56</v>
@@ -1776,10 +1812,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>57</v>
@@ -1793,7 +1829,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>59</v>
@@ -1804,13 +1840,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D59" s="2">
         <v>1167</v>
@@ -1818,10 +1854,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>60</v>
@@ -1835,7 +1871,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>60</v>
@@ -1849,7 +1885,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>63</v>
@@ -1863,7 +1899,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>65</v>
@@ -1877,7 +1913,7 @@
         <v>66</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>67</v>
@@ -1891,7 +1927,7 @@
         <v>68</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>67</v>
@@ -1905,7 +1941,7 @@
         <v>69</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>67</v>
@@ -1919,7 +1955,7 @@
         <v>70</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>71</v>
@@ -1933,7 +1969,7 @@
         <v>72</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>71</v>
@@ -1947,7 +1983,7 @@
         <v>75</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>74</v>
@@ -1961,7 +1997,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>74</v>
@@ -1972,13 +2008,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D71" s="2">
         <v>1</v>
@@ -1989,7 +2025,7 @@
         <v>76</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>77</v>
@@ -2000,16 +2036,16 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2017,7 +2053,7 @@
         <v>78</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>79</v>
@@ -2028,13 +2064,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D75" s="2">
         <v>918</v>
@@ -2045,7 +2081,7 @@
         <v>80</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>81</v>
@@ -2059,7 +2095,7 @@
         <v>82</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>81</v>
@@ -2073,7 +2109,7 @@
         <v>83</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>81</v>
@@ -2087,7 +2123,7 @@
         <v>84</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>85</v>
@@ -2101,7 +2137,7 @@
         <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>85</v>
@@ -2115,7 +2151,7 @@
         <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>85</v>
@@ -2129,7 +2165,7 @@
         <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>89</v>
@@ -2140,13 +2176,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D83" s="2">
         <v>1</v>
@@ -2154,13 +2190,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D84" s="2">
         <v>2</v>
@@ -2168,13 +2204,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D85" s="2">
         <v>1</v>
@@ -2182,30 +2218,30 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2215,13 +2251,33 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="16">
+    <cfRule type="expression" dxfId="5" priority="22">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D87">
+  <conditionalFormatting sqref="A2:D52 A56:D87">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:A55 C53:D55">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A53))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(B53))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(B54))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(B55))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65332166-63F4-492D-8D17-5303AF5A9C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BFC4DA-7F06-4579-890C-1BB241C2C15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="166">
   <si>
     <t>S010004</t>
   </si>
@@ -332,15 +332,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>SACO DE LIXO INFECTANTE - 50LTS</t>
-  </si>
-  <si>
     <t>S010062</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - ÚNICA</t>
-  </si>
-  <si>
     <t>S150190</t>
   </si>
   <si>
@@ -464,12 +458,6 @@
     <t>S150189</t>
   </si>
   <si>
-    <t>AVENTAL C/ MANGA - UNICA</t>
-  </si>
-  <si>
-    <t>S150204</t>
-  </si>
-  <si>
     <t>PRANCHETA A4 - UNICA</t>
   </si>
   <si>
@@ -537,6 +525,18 @@
   </si>
   <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>AVENTAL DESCARTAVEL TNT MANGA LONGA - 30G</t>
+  </si>
+  <si>
+    <t>S080016</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO INFECTANTE - 50L</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
   </si>
 </sst>
 </file>
@@ -644,25 +644,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1014,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:D55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,24 +1010,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>92</v>
@@ -1056,10 +1038,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1073,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -1087,7 +1069,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>91</v>
@@ -1098,30 +1080,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>107</v>
+        <v>163</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1208</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,7 +1111,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -1143,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -1157,7 +1139,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -1171,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1185,7 +1167,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1199,7 +1181,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -1213,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -1224,16 +1206,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1241,7 +1223,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
@@ -1255,7 +1237,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -1266,10 +1248,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
@@ -1283,7 +1265,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -1297,7 +1279,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
@@ -1311,7 +1293,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>24</v>
@@ -1325,7 +1307,7 @@
         <v>93</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>94</v>
@@ -1339,7 +1321,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -1350,13 +1332,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -1367,7 +1349,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>28</v>
@@ -1378,13 +1360,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D26" s="2">
         <v>1176</v>
@@ -1392,13 +1374,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D27" s="2">
         <v>1177</v>
@@ -1406,13 +1388,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D28" s="2">
         <v>1178</v>
@@ -1420,13 +1402,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D29" s="2">
         <v>1179</v>
@@ -1437,7 +1419,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>30</v>
@@ -1448,24 +1430,24 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>31</v>
@@ -1479,7 +1461,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>33</v>
@@ -1493,7 +1475,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>35</v>
@@ -1507,7 +1489,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>35</v>
@@ -1521,7 +1503,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>35</v>
@@ -1535,7 +1517,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>35</v>
@@ -1546,27 +1528,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D39" s="2">
         <v>750</v>
@@ -1577,7 +1559,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>40</v>
@@ -1591,7 +1573,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>40</v>
@@ -1602,27 +1584,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -1630,10 +1612,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>42</v>
@@ -1647,7 +1629,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>44</v>
@@ -1661,7 +1643,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>46</v>
@@ -1675,7 +1657,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>48</v>
@@ -1689,7 +1671,7 @@
         <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>96</v>
@@ -1700,16 +1682,16 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D49" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1717,7 +1699,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>50</v>
@@ -1731,7 +1713,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>52</v>
@@ -1745,7 +1727,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>54</v>
@@ -1756,13 +1738,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D53" s="2">
         <v>33</v>
@@ -1770,13 +1752,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D54" s="2">
         <v>32</v>
@@ -1784,13 +1766,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D55" s="2">
         <v>31</v>
@@ -1801,7 +1783,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>56</v>
@@ -1812,10 +1794,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>57</v>
@@ -1829,7 +1811,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>59</v>
@@ -1840,13 +1822,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D59" s="2">
         <v>1167</v>
@@ -1854,10 +1836,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>60</v>
@@ -1871,7 +1853,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>60</v>
@@ -1885,7 +1867,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>63</v>
@@ -1899,7 +1881,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>65</v>
@@ -1913,7 +1895,7 @@
         <v>66</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>67</v>
@@ -1927,7 +1909,7 @@
         <v>68</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>67</v>
@@ -1941,7 +1923,7 @@
         <v>69</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>67</v>
@@ -1955,7 +1937,7 @@
         <v>70</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>71</v>
@@ -1969,7 +1951,7 @@
         <v>72</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>71</v>
@@ -1983,7 +1965,7 @@
         <v>75</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>74</v>
@@ -1997,7 +1979,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>74</v>
@@ -2008,13 +1990,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D71" s="2">
         <v>1</v>
@@ -2025,7 +2007,7 @@
         <v>76</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>77</v>
@@ -2036,16 +2018,16 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2053,7 +2035,7 @@
         <v>78</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>79</v>
@@ -2064,16 +2046,16 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D75" s="2">
-        <v>918</v>
+        <v>986</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2081,7 +2063,7 @@
         <v>80</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>81</v>
@@ -2095,7 +2077,7 @@
         <v>82</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>81</v>
@@ -2109,7 +2091,7 @@
         <v>83</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>81</v>
@@ -2123,7 +2105,7 @@
         <v>84</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>85</v>
@@ -2137,7 +2119,7 @@
         <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>85</v>
@@ -2151,7 +2133,7 @@
         <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>85</v>
@@ -2165,7 +2147,7 @@
         <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>89</v>
@@ -2176,13 +2158,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D83" s="2">
         <v>1</v>
@@ -2190,13 +2172,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D84" s="2">
         <v>2</v>
@@ -2204,13 +2186,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D85" s="2">
         <v>1</v>
@@ -2218,30 +2200,30 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2251,33 +2233,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="5" priority="22">
+    <cfRule type="expression" dxfId="3" priority="27">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D52 A56:D87">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+  <conditionalFormatting sqref="A2:D74 A76:D84 B75:D75 A86:D87 B85:D85">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:A55 C53:D55">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A53))&gt;0</formula>
+  <conditionalFormatting sqref="A75">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A75))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(B53))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(B54))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
+  <conditionalFormatting sqref="A85">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B55))&gt;0</formula>
+      <formula>LEN(TRIM(A85))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BFC4DA-7F06-4579-890C-1BB241C2C15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A5849A-2B30-40EF-8026-58A5EBAB1AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -212,9 +212,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>S010032</t>
-  </si>
-  <si>
     <t>MOUSE - USB</t>
   </si>
   <si>
@@ -506,9 +503,6 @@
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA</t>
-  </si>
-  <si>
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
@@ -537,6 +531,12 @@
   </si>
   <si>
     <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - TNT</t>
+  </si>
+  <si>
+    <t>S080026</t>
   </si>
 </sst>
 </file>
@@ -644,16 +644,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -996,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,27 +1001,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="3">
         <v>0.5</v>
@@ -1038,10 +1029,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1055,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -1066,13 +1057,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D5" s="3">
         <v>53</v>
@@ -1080,27 +1071,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D7" s="2">
         <v>1208</v>
@@ -1111,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -1125,7 +1116,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -1139,7 +1130,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -1153,7 +1144,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1167,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1181,7 +1172,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -1195,7 +1186,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -1206,16 +1197,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1223,7 +1214,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
@@ -1237,7 +1228,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -1248,10 +1239,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
@@ -1265,7 +1256,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -1279,7 +1270,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
@@ -1293,7 +1284,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>24</v>
@@ -1304,13 +1295,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="D22" s="3">
         <v>904</v>
@@ -1321,7 +1312,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -1332,13 +1323,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -1349,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>28</v>
@@ -1360,13 +1351,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="2">
         <v>1176</v>
@@ -1374,13 +1365,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D27" s="2">
         <v>1177</v>
@@ -1388,13 +1379,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28" s="2">
         <v>1178</v>
@@ -1402,13 +1393,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29" s="2">
         <v>1179</v>
@@ -1419,7 +1410,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>30</v>
@@ -1430,24 +1421,24 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>31</v>
@@ -1461,7 +1452,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>33</v>
@@ -1475,7 +1466,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>35</v>
@@ -1489,7 +1480,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>35</v>
@@ -1503,7 +1494,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>35</v>
@@ -1517,7 +1508,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>35</v>
@@ -1528,27 +1519,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="D39" s="2">
         <v>750</v>
@@ -1559,7 +1550,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>40</v>
@@ -1573,7 +1564,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>40</v>
@@ -1584,27 +1575,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -1612,10 +1603,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>42</v>
@@ -1629,7 +1620,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>44</v>
@@ -1643,7 +1634,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>46</v>
@@ -1657,7 +1648,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>48</v>
@@ -1668,13 +1659,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -1682,13 +1673,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="D49" s="2">
         <v>1164</v>
@@ -1699,7 +1690,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>50</v>
@@ -1713,7 +1704,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>52</v>
@@ -1727,7 +1718,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>54</v>
@@ -1738,13 +1729,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="2">
         <v>33</v>
@@ -1752,13 +1743,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="2">
         <v>32</v>
@@ -1766,13 +1757,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D55" s="2">
         <v>31</v>
@@ -1783,7 +1774,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>56</v>
@@ -1794,27 +1785,27 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="D57" s="2">
-        <v>1</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D58" s="3">
         <v>211</v>
@@ -1822,13 +1813,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D59" s="2">
         <v>1167</v>
@@ -1836,13 +1827,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D60" s="3">
         <v>821</v>
@@ -1850,13 +1841,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D61" s="3">
         <v>819</v>
@@ -1864,13 +1855,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D62" s="3">
         <v>553</v>
@@ -1878,13 +1869,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D63" s="3">
         <v>72</v>
@@ -1892,13 +1883,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D64" s="3">
         <v>86</v>
@@ -1906,13 +1897,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D65" s="3">
         <v>87</v>
@@ -1920,13 +1911,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" s="3">
         <v>88</v>
@@ -1934,13 +1925,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D67" s="3">
         <v>55</v>
@@ -1948,13 +1939,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D68" s="3">
         <v>54</v>
@@ -1962,13 +1953,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D69" s="3">
         <v>994</v>
@@ -1976,13 +1967,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D70" s="3">
         <v>695</v>
@@ -1990,13 +1981,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="D71" s="2">
         <v>1</v>
@@ -2004,13 +1995,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D72" s="3">
         <v>1</v>
@@ -2018,27 +2009,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D74" s="3">
         <v>107</v>
@@ -2046,13 +2037,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D75" s="2">
         <v>986</v>
@@ -2060,13 +2051,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D76" s="3">
         <v>170</v>
@@ -2074,13 +2065,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D77" s="3">
         <v>163</v>
@@ -2088,13 +2079,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D78" s="3">
         <v>799</v>
@@ -2102,13 +2093,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D79" s="3">
         <v>160</v>
@@ -2116,13 +2107,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D80" s="3">
         <v>569</v>
@@ -2130,13 +2121,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D81" s="3">
         <v>762</v>
@@ -2144,13 +2135,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D82" s="3">
         <v>211</v>
@@ -2158,13 +2149,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D83" s="2">
         <v>1</v>
@@ -2172,13 +2163,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="D84" s="2">
         <v>2</v>
@@ -2186,13 +2177,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D85" s="2">
         <v>1</v>
@@ -2200,30 +2191,30 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2233,23 +2224,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="27">
+    <cfRule type="expression" dxfId="2" priority="28">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D74 A76:D84 B75:D75 A86:D87 B85:D85">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:D56 A58:D87">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A75))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
+  <conditionalFormatting sqref="A57:D57">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A85))&gt;0</formula>
+      <formula>LEN(TRIM(A57))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A5849A-2B30-40EF-8026-58A5EBAB1AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1239EC-838C-4F91-B6D0-B718AA0A6EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,15 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="164">
   <si>
     <t>S010004</t>
-  </si>
-  <si>
-    <t>ALCOOL GEL - 500 ML</t>
-  </si>
-  <si>
-    <t>S010061</t>
   </si>
   <si>
     <t>BOBINA IMPRESSORA FISCAL PADRONIZADO - 80x40M</t>
@@ -644,16 +638,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -985,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:D57"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,27 +986,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" s="3">
         <v>0.5</v>
@@ -1029,10 +1014,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1043,58 +1028,58 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="D4" s="3">
-        <v>103</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="3">
-        <v>53</v>
+        <v>100</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>159</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1208</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1208</v>
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>809</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1102,13 +1087,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>809</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1116,55 +1101,55 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>1045</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1172,41 +1157,41 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>104</v>
+        <v>15</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1214,41 +1199,41 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1256,7 +1241,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -1270,181 +1255,181 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="3">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="D21" s="3">
-        <v>52</v>
+        <v>904</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="D22" s="3">
-        <v>904</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="D23" s="3">
-        <v>109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="D24" s="3">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="3">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1176</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D26" s="2">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D27" s="2">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D28" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1179</v>
+        <v>28</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>104</v>
+        <v>29</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1162</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="2">
-        <v>1162</v>
+      <c r="D32" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1452,13 +1437,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="3">
-        <v>1</v>
+        <v>899</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1466,83 +1451,83 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D34" s="3">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35" s="3">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D36" s="3">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="3">
-        <v>898</v>
+        <v>110</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>104</v>
+        <v>142</v>
+      </c>
+      <c r="D38" s="2">
+        <v>750</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="2">
-        <v>750</v>
+        <v>38</v>
+      </c>
+      <c r="D39" s="3">
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1550,69 +1535,69 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D40" s="3">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="3">
-        <v>167</v>
+        <v>112</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="D43" s="2">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="2">
-        <v>448</v>
+      <c r="D44" s="3">
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,7 +1605,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>44</v>
@@ -1634,24 +1619,24 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D46" s="3">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
@@ -1659,30 +1644,30 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1164</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1164</v>
+        <v>48</v>
+      </c>
+      <c r="D49" s="3">
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,13 +1675,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D50" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1704,27 +1689,27 @@
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D51" s="3">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="3">
-        <v>745</v>
+        <v>155</v>
+      </c>
+      <c r="D52" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1732,125 +1717,125 @@
         <v>156</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D55" s="2">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="3">
-        <v>2</v>
+        <v>163</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1181</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1181</v>
+        <v>56</v>
+      </c>
+      <c r="D57" s="3">
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="3">
-        <v>211</v>
+        <v>113</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1167</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1167</v>
+        <v>57</v>
+      </c>
+      <c r="D59" s="3">
+        <v>821</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D60" s="3">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D61" s="3">
-        <v>819</v>
+        <v>553</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1858,13 +1843,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D62" s="3">
-        <v>553</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1872,13 +1857,13 @@
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D63" s="3">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1886,41 +1871,41 @@
         <v>65</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D64" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D65" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D66" s="3">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1928,125 +1913,125 @@
         <v>69</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D67" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D68" s="3">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D69" s="3">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D70" s="3">
-        <v>695</v>
+        <v>137</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D71" s="2">
+        <v>74</v>
+      </c>
+      <c r="D71" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D72" s="3">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>76</v>
+      </c>
+      <c r="D73" s="3">
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" s="3">
-        <v>107</v>
+        <v>94</v>
+      </c>
+      <c r="D74" s="2">
+        <v>986</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D75" s="2">
-        <v>986</v>
+        <v>78</v>
+      </c>
+      <c r="D75" s="3">
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2054,41 +2039,41 @@
         <v>79</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D76" s="3">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D77" s="3">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D78" s="3">
-        <v>799</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2096,146 +2081,127 @@
         <v>83</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D79" s="3">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D80" s="3">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D81" s="3">
-        <v>762</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D82" s="3">
-        <v>211</v>
+        <v>116</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D83" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D84" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" s="2">
-        <v>1</v>
+        <v>139</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D87" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D87">
-      <sortCondition ref="A1:A87"/>
+  <autoFilter ref="A1:D86" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D86">
+      <sortCondition ref="A1:A86"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="28">
+    <cfRule type="expression" dxfId="1" priority="28">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D56 A58:D87">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D86">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:D57">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A57))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1239EC-838C-4F91-B6D0-B718AA0A6EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1C0657-7741-448E-8D09-7504C713F9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="162">
   <si>
     <t>S010004</t>
   </si>
@@ -234,12 +234,6 @@
   </si>
   <si>
     <t>S020025</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 30MM</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
   </si>
   <si>
     <t>PILHA - AA (PAR)</t>
@@ -970,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,27 +980,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" s="3">
         <v>0.5</v>
@@ -1014,10 +1008,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1028,13 +1022,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="3">
         <v>53</v>
@@ -1042,27 +1036,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D6" s="2">
         <v>1208</v>
@@ -1073,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -1087,7 +1081,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -1101,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -1115,7 +1109,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -1129,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -1143,7 +1137,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -1157,7 +1151,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -1168,16 +1162,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,7 +1179,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -1199,7 +1193,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -1210,10 +1204,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
@@ -1227,7 +1221,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -1241,7 +1235,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -1255,7 +1249,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
@@ -1266,13 +1260,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D21" s="3">
         <v>904</v>
@@ -1283,7 +1277,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>24</v>
@@ -1294,13 +1288,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -1311,7 +1305,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>26</v>
@@ -1322,13 +1316,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D25" s="2">
         <v>1176</v>
@@ -1336,13 +1330,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D26" s="2">
         <v>1177</v>
@@ -1350,13 +1344,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D27" s="2">
         <v>1178</v>
@@ -1364,13 +1358,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D28" s="2">
         <v>1179</v>
@@ -1381,7 +1375,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>28</v>
@@ -1392,24 +1386,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
@@ -1423,7 +1417,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>31</v>
@@ -1437,7 +1431,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>33</v>
@@ -1451,7 +1445,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>33</v>
@@ -1465,7 +1459,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>33</v>
@@ -1479,7 +1473,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>33</v>
@@ -1490,27 +1484,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D38" s="2">
         <v>750</v>
@@ -1521,7 +1515,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>38</v>
@@ -1535,7 +1529,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>38</v>
@@ -1546,27 +1540,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
@@ -1574,10 +1568,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>40</v>
@@ -1591,7 +1585,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>42</v>
@@ -1605,7 +1599,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>44</v>
@@ -1619,7 +1613,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>46</v>
@@ -1630,13 +1624,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
@@ -1644,13 +1638,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="2">
         <v>1164</v>
@@ -1661,7 +1655,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>48</v>
@@ -1675,7 +1669,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>50</v>
@@ -1689,7 +1683,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>52</v>
@@ -1700,13 +1694,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="2">
         <v>33</v>
@@ -1714,13 +1708,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D53" s="2">
         <v>32</v>
@@ -1728,13 +1722,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D54" s="2">
         <v>31</v>
@@ -1745,7 +1739,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>54</v>
@@ -1756,13 +1750,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="2">
         <v>1181</v>
@@ -1773,7 +1767,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>56</v>
@@ -1784,13 +1778,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D58" s="2">
         <v>1167</v>
@@ -1798,10 +1792,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>57</v>
@@ -1815,7 +1809,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>57</v>
@@ -1829,7 +1823,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>60</v>
@@ -1843,7 +1837,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>62</v>
@@ -1857,7 +1851,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>64</v>
@@ -1871,97 +1865,97 @@
         <v>65</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D64" s="3">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D65" s="3">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D66" s="3">
-        <v>55</v>
+        <v>994</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D67" s="3">
-        <v>54</v>
+        <v>695</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" s="3">
-        <v>994</v>
+        <v>135</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D69" s="3">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D70" s="2">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1969,27 +1963,27 @@
         <v>73</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D71" s="3">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
+      </c>
+      <c r="D72" s="2">
+        <v>986</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1997,41 +1991,41 @@
         <v>75</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D73" s="3">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D74" s="2">
-        <v>986</v>
+        <v>76</v>
+      </c>
+      <c r="D74" s="3">
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D75" s="3">
-        <v>170</v>
+        <v>799</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2039,41 +2033,41 @@
         <v>79</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D76" s="3">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D77" s="3">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D78" s="3">
-        <v>160</v>
+        <v>762</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2081,52 +2075,52 @@
         <v>83</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D79" s="3">
-        <v>569</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D80" s="3">
-        <v>762</v>
+        <v>114</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D81" s="3">
-        <v>211</v>
+        <v>118</v>
+      </c>
+      <c r="D81" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D82" s="2">
         <v>1</v>
@@ -2134,64 +2128,36 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D83" s="2">
-        <v>2</v>
+        <v>137</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D84" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D86" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D86">
-      <sortCondition ref="A1:A86"/>
+  <autoFilter ref="A1:D84" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D84">
+      <sortCondition ref="A1:A84"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2199,7 +2165,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D86">
+  <conditionalFormatting sqref="A2:D84">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1C0657-7741-448E-8D09-7504C713F9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64AEF56-5944-46E4-9A14-AEA021D5C879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="161">
   <si>
     <t>S010004</t>
   </si>
@@ -218,9 +218,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO - 300MT</t>
-  </si>
-  <si>
     <t>S010056</t>
   </si>
   <si>
@@ -419,9 +416,6 @@
     <t>PC C/10</t>
   </si>
   <si>
-    <t>PC C/8</t>
-  </si>
-  <si>
     <t>PC</t>
   </si>
   <si>
@@ -525,6 +519,9 @@
   </si>
   <si>
     <t>S080026</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 300MT PC C/8</t>
   </si>
 </sst>
 </file>
@@ -632,7 +629,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -967,7 +973,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD64"/>
+      <selection activeCell="A61" sqref="A61:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,27 +986,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="3">
         <v>0.5</v>
@@ -1008,10 +1014,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1022,13 +1028,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D4" s="3">
         <v>53</v>
@@ -1036,27 +1042,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D6" s="2">
         <v>1208</v>
@@ -1067,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -1081,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -1095,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -1109,7 +1115,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -1123,7 +1129,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -1137,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -1151,7 +1157,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -1162,16 +1168,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1179,7 +1185,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -1193,7 +1199,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -1204,10 +1210,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
@@ -1221,7 +1227,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -1235,7 +1241,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -1249,7 +1255,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
@@ -1260,13 +1266,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D21" s="3">
         <v>904</v>
@@ -1277,7 +1283,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>24</v>
@@ -1288,13 +1294,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -1305,7 +1311,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>26</v>
@@ -1316,13 +1322,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="2">
         <v>1176</v>
@@ -1330,13 +1336,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="2">
         <v>1177</v>
@@ -1344,13 +1350,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="2">
         <v>1178</v>
@@ -1358,13 +1364,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="2">
         <v>1179</v>
@@ -1375,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>28</v>
@@ -1386,24 +1392,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
@@ -1417,7 +1423,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>31</v>
@@ -1431,7 +1437,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>33</v>
@@ -1445,7 +1451,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>33</v>
@@ -1459,7 +1465,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>33</v>
@@ -1473,7 +1479,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>33</v>
@@ -1484,27 +1490,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D38" s="2">
         <v>750</v>
@@ -1515,7 +1521,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>38</v>
@@ -1529,7 +1535,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>38</v>
@@ -1540,27 +1546,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
@@ -1568,10 +1574,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>40</v>
@@ -1585,7 +1591,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>42</v>
@@ -1599,7 +1605,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>44</v>
@@ -1613,7 +1619,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>46</v>
@@ -1624,13 +1630,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
@@ -1638,13 +1644,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="2">
         <v>1164</v>
@@ -1655,7 +1661,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>48</v>
@@ -1669,7 +1675,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>50</v>
@@ -1683,7 +1689,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>52</v>
@@ -1694,13 +1700,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="2">
         <v>33</v>
@@ -1708,13 +1714,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D53" s="2">
         <v>32</v>
@@ -1722,13 +1728,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D54" s="2">
         <v>31</v>
@@ -1739,7 +1745,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>54</v>
@@ -1750,13 +1756,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D56" s="2">
         <v>1181</v>
@@ -1767,7 +1773,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>56</v>
@@ -1778,13 +1784,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D58" s="2">
         <v>1167</v>
@@ -1792,10 +1798,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>57</v>
@@ -1809,7 +1815,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>57</v>
@@ -1820,27 +1826,27 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="3">
-        <v>553</v>
+      <c r="D61" s="2">
+        <v>1394</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D62" s="3">
         <v>72</v>
@@ -1848,13 +1854,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D63" s="3">
         <v>86</v>
@@ -1862,13 +1868,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D64" s="3">
         <v>55</v>
@@ -1876,13 +1882,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D65" s="3">
         <v>54</v>
@@ -1890,13 +1896,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" s="3">
         <v>994</v>
@@ -1904,13 +1910,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D67" s="3">
         <v>695</v>
@@ -1918,13 +1924,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D68" s="2">
         <v>1</v>
@@ -1932,13 +1938,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D69" s="3">
         <v>1</v>
@@ -1946,27 +1952,27 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D71" s="3">
         <v>107</v>
@@ -1974,13 +1980,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="2">
         <v>986</v>
@@ -1988,13 +1994,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D73" s="3">
         <v>170</v>
@@ -2002,13 +2008,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D74" s="3">
         <v>163</v>
@@ -2016,13 +2022,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D75" s="3">
         <v>799</v>
@@ -2030,13 +2036,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D76" s="3">
         <v>160</v>
@@ -2044,13 +2050,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D77" s="3">
         <v>569</v>
@@ -2058,13 +2064,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D78" s="3">
         <v>762</v>
@@ -2072,13 +2078,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D79" s="3">
         <v>211</v>
@@ -2086,13 +2092,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D80" s="2">
         <v>1</v>
@@ -2100,13 +2106,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="D81" s="2">
         <v>2</v>
@@ -2114,13 +2120,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D82" s="2">
         <v>1</v>
@@ -2128,30 +2134,30 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="D84" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2161,13 +2167,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="28">
+    <cfRule type="expression" dxfId="2" priority="29">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D84">
+  <conditionalFormatting sqref="A2:D60 A62:D84">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:D61">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A61))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64AEF56-5944-46E4-9A14-AEA021D5C879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C413F3-54C6-4CF1-BC54-32DAE78A16C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -170,9 +170,6 @@
     <t>S020056</t>
   </si>
   <si>
-    <t>GRAMPO - 26/6 - 26/6</t>
-  </si>
-  <si>
     <t>S020057</t>
   </si>
   <si>
@@ -522,6 +519,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
   </si>
 </sst>
 </file>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:D61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,27 +986,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="3">
         <v>0.5</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1028,13 +1028,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D4" s="3">
         <v>53</v>
@@ -1042,27 +1042,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="D6" s="2">
         <v>1208</v>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -1087,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -1101,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -1115,7 +1115,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -1129,7 +1129,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -1143,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -1157,7 +1157,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -1168,16 +1168,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,7 +1185,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -1199,7 +1199,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
@@ -1227,7 +1227,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -1241,7 +1241,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -1255,7 +1255,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D21" s="3">
         <v>904</v>
@@ -1283,7 +1283,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>24</v>
@@ -1294,13 +1294,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -1311,7 +1311,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>26</v>
@@ -1322,13 +1322,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" s="2">
         <v>1176</v>
@@ -1336,13 +1336,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="2">
         <v>1177</v>
@@ -1350,13 +1350,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="2">
         <v>1178</v>
@@ -1364,13 +1364,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="2">
         <v>1179</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>28</v>
@@ -1392,24 +1392,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
@@ -1423,7 +1423,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>31</v>
@@ -1437,7 +1437,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>33</v>
@@ -1451,7 +1451,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>33</v>
@@ -1465,7 +1465,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>33</v>
@@ -1479,7 +1479,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>33</v>
@@ -1490,27 +1490,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="D38" s="2">
         <v>750</v>
@@ -1521,7 +1521,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>38</v>
@@ -1535,7 +1535,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>38</v>
@@ -1546,27 +1546,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
@@ -1574,10 +1574,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>40</v>
@@ -1591,7 +1591,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>42</v>
@@ -1602,27 +1602,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="3">
-        <v>80</v>
+      <c r="D45" s="2">
+        <v>1396</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
@@ -1630,13 +1630,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
@@ -1644,13 +1644,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="D48" s="2">
         <v>1164</v>
@@ -1658,13 +1658,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D49" s="3">
         <v>40</v>
@@ -1672,13 +1672,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
@@ -1686,13 +1686,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D51" s="3">
         <v>745</v>
@@ -1700,13 +1700,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="D52" s="2">
         <v>33</v>
@@ -1714,13 +1714,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D53" s="2">
         <v>32</v>
@@ -1728,13 +1728,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D54" s="2">
         <v>31</v>
@@ -1742,13 +1742,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D55" s="3">
         <v>2</v>
@@ -1756,13 +1756,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D56" s="2">
         <v>1181</v>
@@ -1770,13 +1770,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D57" s="3">
         <v>211</v>
@@ -1784,13 +1784,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D58" s="2">
         <v>1167</v>
@@ -1798,13 +1798,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D59" s="3">
         <v>821</v>
@@ -1812,13 +1812,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D60" s="3">
         <v>819</v>
@@ -1826,13 +1826,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" s="2">
         <v>1394</v>
@@ -1840,13 +1840,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D62" s="3">
         <v>72</v>
@@ -1854,13 +1854,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D63" s="3">
         <v>86</v>
@@ -1868,13 +1868,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D64" s="3">
         <v>55</v>
@@ -1882,13 +1882,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D65" s="3">
         <v>54</v>
@@ -1896,13 +1896,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D66" s="3">
         <v>994</v>
@@ -1910,13 +1910,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D67" s="3">
         <v>695</v>
@@ -1924,13 +1924,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="D68" s="2">
         <v>1</v>
@@ -1938,13 +1938,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D69" s="3">
         <v>1</v>
@@ -1952,27 +1952,27 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="D71" s="3">
         <v>107</v>
@@ -1980,13 +1980,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D72" s="2">
         <v>986</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D73" s="3">
         <v>170</v>
@@ -2008,13 +2008,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D74" s="3">
         <v>163</v>
@@ -2022,13 +2022,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D75" s="3">
         <v>799</v>
@@ -2036,13 +2036,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D76" s="3">
         <v>160</v>
@@ -2050,13 +2050,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D77" s="3">
         <v>569</v>
@@ -2064,13 +2064,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D78" s="3">
         <v>762</v>
@@ -2078,13 +2078,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="D79" s="3">
         <v>211</v>
@@ -2092,13 +2092,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D80" s="2">
         <v>1</v>
@@ -2106,13 +2106,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="D81" s="2">
         <v>2</v>
@@ -2120,13 +2120,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="2">
         <v>1</v>
@@ -2134,30 +2134,30 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="D84" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2167,18 +2167,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="29">
+    <cfRule type="expression" dxfId="2" priority="30">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D60 A62:D84">
+  <conditionalFormatting sqref="A2:D44 A46:D84">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:D61">
+  <conditionalFormatting sqref="A45:D45">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A61))&gt;0</formula>
+      <formula>LEN(TRIM(A45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C413F3-54C6-4CF1-BC54-32DAE78A16C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADEC4D4-59F8-4AC0-BF2E-7397092AE8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="159">
   <si>
     <t>S010004</t>
   </si>
@@ -77,9 +77,6 @@
     <t>S020082</t>
   </si>
   <si>
-    <t>CALCULADORA PORTATIL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020083</t>
   </si>
   <si>
@@ -92,15 +89,9 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - PRETO</t>
   </si>
   <si>
-    <t>CLIPE 2/0 COM 100UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020087</t>
   </si>
   <si>
-    <t>CLIPE 8/0 COM 25UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020090</t>
   </si>
   <si>
@@ -122,18 +113,12 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050018</t>
   </si>
   <si>
     <t>S010018</t>
   </si>
   <si>
-    <t>ESTILETE C/ LAMINA 18MM - LARGA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020046</t>
   </si>
   <si>
@@ -173,9 +158,6 @@
     <t>S020057</t>
   </si>
   <si>
-    <t>LACRE DE SEGURANÇA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050012</t>
   </si>
   <si>
@@ -185,9 +167,6 @@
     <t>S020062</t>
   </si>
   <si>
-    <t>LIVRO ATA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020063</t>
   </si>
   <si>
@@ -248,9 +227,6 @@
     <t>PORTA ETIQUETA - 60CM</t>
   </si>
   <si>
-    <t>PROTOCOLO DE CORRESPONDENCIA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020038</t>
   </si>
   <si>
@@ -305,9 +281,6 @@
     <t>S010009</t>
   </si>
   <si>
-    <t>LANCETAS - UNICA</t>
-  </si>
-  <si>
     <t>S150191</t>
   </si>
   <si>
@@ -332,57 +305,30 @@
     <t>S020071</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
-  </si>
-  <si>
-    <t>S150295</t>
-  </si>
-  <si>
     <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
   </si>
   <si>
     <t>S010087</t>
   </si>
   <si>
-    <t>ESPANADOR - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110018</t>
   </si>
   <si>
-    <t>EXTRATOR DE GRAMPOS - UNICA</t>
-  </si>
-  <si>
     <t>S020048</t>
   </si>
   <si>
-    <t>FITA DUPLA FACE - UNICA</t>
-  </si>
-  <si>
     <t>S230009</t>
   </si>
   <si>
     <t>S010038</t>
   </si>
   <si>
-    <t>QUADRO DE AVISO - UNICA</t>
-  </si>
-  <si>
     <t>S020118</t>
   </si>
   <si>
     <t>S020007</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110037</t>
   </si>
   <si>
@@ -392,12 +338,6 @@
     <t>S020009</t>
   </si>
   <si>
-    <t>TESOURA ESCOLAR - UNICA</t>
-  </si>
-  <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
-  </si>
-  <si>
     <t>S050008</t>
   </si>
   <si>
@@ -428,15 +368,9 @@
     <t>PAPEL A4 - AMARELO 500FLS - AMARELO 500FLS</t>
   </si>
   <si>
-    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
-  </si>
-  <si>
     <t>S150189</t>
   </si>
   <si>
-    <t>PRANCHETA A4 - UNICA</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
@@ -509,9 +443,6 @@
     <t>SACO P/ LIXO INFECTANTE - 50L</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
-  </si>
-  <si>
     <t>MASCARA DESCARTAVEL - TNT</t>
   </si>
   <si>
@@ -522,6 +453,69 @@
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
+  </si>
+  <si>
+    <t>CALCULADORA PORTATIL - 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>CANETA DETECTA DINHEIRO FALSO - LUMINOSA - LUMINOSA</t>
+  </si>
+  <si>
+    <t>S020133</t>
+  </si>
+  <si>
+    <t>CLIPE 2/0 - 100UND</t>
+  </si>
+  <si>
+    <t>CLIPE 8/0 - 25UND</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - 500 UND</t>
+  </si>
+  <si>
+    <t>SACOLA DE PAPEL PERSONALIZADA - 22X25</t>
+  </si>
+  <si>
+    <t>ESPANADOR - PENA</t>
+  </si>
+  <si>
+    <t>ESTILETE C/ LAMINA - LARGA - 18MM</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS - METALICO</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - 19mm x 3m</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
+  </si>
+  <si>
+    <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
+  </si>
+  <si>
+    <t>LANCETAS - 100UN - 100UN</t>
+  </si>
+  <si>
+    <t>LIVRO ATA - 100FLS</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - MDF A4</t>
+  </si>
+  <si>
+    <t>PROTOCOLO DE CORRESPONDENCIA - 96 FLS</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO - 90X60CM - 90X60CM</t>
+  </si>
+  <si>
+    <t>TESOURA ESCOLAR - 4"</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - ACCU-CHEK</t>
+  </si>
+  <si>
+    <t>VASSOURA - PIASSAVA - PIASSAVA</t>
   </si>
 </sst>
 </file>
@@ -629,16 +623,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -972,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:D45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,27 +971,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3">
         <v>0.5</v>
@@ -1014,10 +999,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1028,13 +1013,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D4" s="3">
         <v>53</v>
@@ -1042,27 +1027,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2">
         <v>1208</v>
@@ -1073,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -1087,7 +1072,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -1101,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -1115,7 +1100,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -1129,7 +1114,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -1143,7 +1128,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -1154,41 +1139,41 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D13" s="3">
-        <v>1</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>98</v>
+        <v>140</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1184</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -1196,13 +1181,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
@@ -1210,13 +1195,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2">
         <v>4</v>
@@ -1224,41 +1209,41 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3">
-        <v>1</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3">
         <v>52</v>
@@ -1266,13 +1251,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D21" s="3">
         <v>904</v>
@@ -1280,13 +1265,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D22" s="3">
         <v>109</v>
@@ -1294,27 +1279,27 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D23" s="3">
-        <v>1</v>
+        <v>874</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D24" s="3">
         <v>103</v>
@@ -1322,13 +1307,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D25" s="2">
         <v>1176</v>
@@ -1336,13 +1321,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D26" s="2">
         <v>1177</v>
@@ -1350,13 +1335,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D27" s="2">
         <v>1178</v>
@@ -1364,13 +1349,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D28" s="2">
         <v>1179</v>
@@ -1378,41 +1363,41 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>1</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1454</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2">
         <v>1162</v>
@@ -1420,27 +1405,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>1</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D33" s="3">
         <v>899</v>
@@ -1448,13 +1433,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D34" s="3">
         <v>896</v>
@@ -1462,13 +1447,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D35" s="3">
         <v>900</v>
@@ -1476,13 +1461,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D36" s="3">
         <v>898</v>
@@ -1490,27 +1475,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1456</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D38" s="2">
         <v>750</v>
@@ -1518,13 +1503,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D39" s="3">
         <v>166</v>
@@ -1532,13 +1517,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D40" s="3">
         <v>167</v>
@@ -1546,41 +1531,41 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="D41" s="3">
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D42" s="2">
-        <v>1</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D43" s="2">
         <v>448</v>
@@ -1588,13 +1573,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>80</v>
@@ -1602,13 +1587,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D45" s="2">
         <v>1396</v>
@@ -1616,41 +1601,41 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="3">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D48" s="2">
         <v>1164</v>
@@ -1658,13 +1643,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D49" s="3">
         <v>40</v>
@@ -1672,27 +1657,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D50" s="3">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D51" s="3">
         <v>745</v>
@@ -1700,13 +1685,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D52" s="2">
         <v>33</v>
@@ -1714,13 +1699,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D53" s="2">
         <v>32</v>
@@ -1728,13 +1713,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D54" s="2">
         <v>31</v>
@@ -1742,13 +1727,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D55" s="3">
         <v>2</v>
@@ -1756,13 +1741,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="D56" s="2">
         <v>1181</v>
@@ -1770,13 +1755,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D57" s="3">
         <v>211</v>
@@ -1784,13 +1769,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D58" s="2">
         <v>1167</v>
@@ -1798,13 +1783,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D59" s="3">
         <v>821</v>
@@ -1812,13 +1797,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D60" s="3">
         <v>819</v>
@@ -1826,13 +1811,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D61" s="2">
         <v>1394</v>
@@ -1840,13 +1825,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D62" s="3">
         <v>72</v>
@@ -1854,13 +1839,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D63" s="3">
         <v>86</v>
@@ -1868,13 +1853,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D64" s="3">
         <v>55</v>
@@ -1882,13 +1867,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D65" s="3">
         <v>54</v>
@@ -1896,13 +1881,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D66" s="3">
         <v>994</v>
@@ -1910,13 +1895,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D67" s="3">
         <v>695</v>
@@ -1924,55 +1909,55 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D68" s="2">
-        <v>1</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D69" s="3">
-        <v>1</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1030</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D71" s="3">
         <v>107</v>
@@ -1980,13 +1965,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D72" s="2">
         <v>986</v>
@@ -1994,13 +1979,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D73" s="3">
         <v>170</v>
@@ -2008,13 +1993,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D74" s="3">
         <v>163</v>
@@ -2022,13 +2007,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D75" s="3">
         <v>799</v>
@@ -2036,13 +2021,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D76" s="3">
         <v>160</v>
@@ -2050,13 +2035,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D77" s="3">
         <v>569</v>
@@ -2064,13 +2049,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D78" s="3">
         <v>762</v>
@@ -2078,13 +2063,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D79" s="3">
         <v>211</v>
@@ -2092,27 +2077,27 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D80" s="2">
-        <v>1</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D81" s="2">
         <v>2</v>
@@ -2120,65 +2105,55 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D82" s="2">
-        <v>1</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="D84" s="3">
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D84" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D84">
-      <sortCondition ref="A1:A84"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="30">
+    <cfRule type="expression" dxfId="1" priority="30">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D44 A46:D84">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D84">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:D45">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADEC4D4-59F8-4AC0-BF2E-7397092AE8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB90561A-833F-4A1B-9447-02E280E0A89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -365,9 +365,6 @@
     <t>PAR</t>
   </si>
   <si>
-    <t>PAPEL A4 - AMARELO 500FLS - AMARELO 500FLS</t>
-  </si>
-  <si>
     <t>S150189</t>
   </si>
   <si>
@@ -516,6 +513,9 @@
   </si>
   <si>
     <t>VASSOURA - PIASSAVA - PIASSAVA</t>
+  </si>
+  <si>
+    <t>PAPEL A4 - AMARELO 500FLS - AMARELO 100FLS</t>
   </si>
 </sst>
 </file>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +985,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>101</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>102</v>
@@ -1041,13 +1041,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="2">
         <v>1208</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>102</v>
@@ -1153,13 +1153,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="D14" s="3">
         <v>1184</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>101</v>
@@ -1218,12 +1218,12 @@
         <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>101</v>
@@ -1279,13 +1279,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="3">
         <v>874</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>102</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>102</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>102</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>102</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>102</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>102</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>102</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>102</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>102</v>
@@ -1489,13 +1489,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="D38" s="2">
         <v>750</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>102</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>102</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>102</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>101</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>102</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>101</v>
@@ -1624,18 +1624,18 @@
         <v>80</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="D48" s="2">
         <v>1164</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>102</v>
@@ -1685,13 +1685,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D52" s="2">
         <v>33</v>
@@ -1699,13 +1699,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D53" s="2">
         <v>32</v>
@@ -1713,13 +1713,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D54" s="2">
         <v>31</v>
@@ -1741,13 +1741,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D56" s="2">
         <v>1181</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>102</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>104</v>
@@ -1792,7 +1792,7 @@
         <v>49</v>
       </c>
       <c r="D59" s="3">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1811,7 +1811,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>104</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D68" s="2">
         <v>1457</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>102</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>102</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>104</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>102</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>101</v>
@@ -2119,21 +2119,21 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>102</v>

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB90561A-833F-4A1B-9447-02E280E0A89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091AA3FF-190F-4CF2-A682-2D346DC42A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -515,7 +515,7 @@
     <t>VASSOURA - PIASSAVA - PIASSAVA</t>
   </si>
   <si>
-    <t>PAPEL A4 - AMARELO 500FLS - AMARELO 100FLS</t>
+    <t>PAPEL A4 - AMARELO 100FLS</t>
   </si>
 </sst>
 </file>
@@ -958,7 +958,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091AA3FF-190F-4CF2-A682-2D346DC42A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06F31E3-6529-43C5-8FE7-5F9A4BC64F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -957,7 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06F31E3-6529-43C5-8FE7-5F9A4BC64F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF7DF67-DA23-4CF2-9F4A-F6614AE36A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -416,9 +416,6 @@
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
-    <t>AGULHA 12X40MM - 100UN</t>
-  </si>
-  <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.G - TAM.G</t>
   </si>
   <si>
@@ -516,6 +513,9 @@
   </si>
   <si>
     <t>PAPEL A4 - AMARELO 100FLS</t>
+  </si>
+  <si>
+    <t>AGULHA IM - CALIBRE 40X1,20MM</t>
   </si>
 </sst>
 </file>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +985,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>101</v>
@@ -994,7 +994,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="3">
-        <v>0.5</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1041,13 +1041,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2">
         <v>1208</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>102</v>
@@ -1153,13 +1153,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="D14" s="3">
         <v>1184</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>101</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>101</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>102</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>102</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>102</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>102</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>102</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>102</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>102</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>101</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>102</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>101</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>102</v>
@@ -1685,13 +1685,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="D52" s="2">
         <v>33</v>
@@ -1699,13 +1699,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D53" s="2">
         <v>32</v>
@@ -1713,13 +1713,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D54" s="2">
         <v>31</v>
@@ -1741,13 +1741,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D56" s="2">
         <v>1181</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>104</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>104</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>102</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>102</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>102</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>104</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>102</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>101</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>102</v>

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF7DF67-DA23-4CF2-9F4A-F6614AE36A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4DE6B3-5877-46AE-8A04-5BA428FD2BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -623,7 +623,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -958,7 +967,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G11"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1325,7 @@
         <v>89</v>
       </c>
       <c r="D25" s="2">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1330,7 +1339,7 @@
         <v>89</v>
       </c>
       <c r="D26" s="2">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1344,7 +1353,7 @@
         <v>89</v>
       </c>
       <c r="D27" s="2">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1358,7 +1367,7 @@
         <v>89</v>
       </c>
       <c r="D28" s="2">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2147,13 +2156,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="30">
+    <cfRule type="expression" dxfId="2" priority="31">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D84">
+  <conditionalFormatting sqref="A2:D24 A29:D84">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:D28">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4DE6B3-5877-46AE-8A04-5BA428FD2BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EAB0E8-018A-47E9-9349-E6914BCFC7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -506,9 +506,6 @@
     <t>TESOURA ESCOLAR - 4"</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - ACCU-CHEK</t>
-  </si>
-  <si>
     <t>VASSOURA - PIASSAVA - PIASSAVA</t>
   </si>
   <si>
@@ -516,6 +513,9 @@
   </si>
   <si>
     <t>AGULHA IM - CALIBRE 40X1,20MM</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - ON CALL</t>
   </si>
 </sst>
 </file>
@@ -623,16 +623,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -966,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,7 +985,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>101</v>
@@ -1792,7 +1783,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>104</v>
@@ -2114,7 +2105,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>101</v>
@@ -2123,7 +2114,7 @@
         <v>82</v>
       </c>
       <c r="D82" s="2">
-        <v>1417</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2142,7 +2133,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>102</v>
@@ -2156,18 +2147,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="31">
+    <cfRule type="expression" dxfId="1" priority="31">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D24 A29:D84">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D84">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:D28">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EAB0E8-018A-47E9-9349-E6914BCFC7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA1A57C-50F3-4EEB-87AA-85411BC09E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -958,7 +958,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,7 +2114,7 @@
         <v>82</v>
       </c>
       <c r="D82" s="2">
-        <v>1396</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">

--- a/pages/PA_csoservi_cservico_ssala.xlsx
+++ b/pages/PA_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA1A57C-50F3-4EEB-87AA-85411BC09E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D439D320-4462-47EC-BD48-09CA66A5DFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="161">
   <si>
     <t>S010004</t>
   </si>
@@ -516,6 +516,12 @@
   </si>
   <si>
     <t>TIRA P/ TESTE DE GLICEMIA - ON CALL</t>
+  </si>
+  <si>
+    <t>ISOPOR - 3L - 3L</t>
+  </si>
+  <si>
+    <t>S050011</t>
   </si>
 </sst>
 </file>
@@ -955,11 +961,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1363,63 +1367,63 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D29" s="3">
-        <v>1436</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1454</v>
+        <v>25</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1162</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1162</v>
+        <v>26</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1455</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D32" s="3">
-        <v>1455</v>
+        <v>899</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>102</v>
@@ -1428,12 +1432,12 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>102</v>
@@ -1442,12 +1446,12 @@
         <v>28</v>
       </c>
       <c r="D34" s="3">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>102</v>
@@ -1456,54 +1460,54 @@
         <v>28</v>
       </c>
       <c r="D35" s="3">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D36" s="3">
-        <v>898</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1456</v>
+        <v>114</v>
+      </c>
+      <c r="D37" s="2">
+        <v>750</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="2">
-        <v>750</v>
+        <v>33</v>
+      </c>
+      <c r="D38" s="3">
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>102</v>
@@ -1512,91 +1516,91 @@
         <v>33</v>
       </c>
       <c r="D39" s="3">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="D40" s="3">
-        <v>167</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="3">
-        <v>272</v>
+        <v>99</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1157</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2">
-        <v>1157</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="2">
-        <v>448</v>
+        <v>37</v>
+      </c>
+      <c r="D43" s="3">
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="3">
-        <v>80</v>
+        <v>38</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1396</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1396</v>
+        <v>160</v>
+      </c>
+      <c r="D45" s="3">
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2021,21 +2025,21 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="D76" s="3">
-        <v>160</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>106</v>
@@ -2044,12 +2048,12 @@
         <v>70</v>
       </c>
       <c r="D77" s="3">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>106</v>
@@ -2058,100 +2062,119 @@
         <v>70</v>
       </c>
       <c r="D78" s="3">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D79" s="3">
-        <v>211</v>
+        <v>762</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D80" s="2">
-        <v>202</v>
+        <v>74</v>
+      </c>
+      <c r="D80" s="3">
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D81" s="2">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D82" s="2">
-        <v>1418</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>82</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1418</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C84" s="2" t="s">
+      <c r="B85" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D85" s="3">
         <v>1458</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D85" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D85">
+      <sortCondition ref="A1:A85"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
     <cfRule type="expression" dxfId="1" priority="31">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D84">
+  <conditionalFormatting sqref="A2:D85">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
